--- a/Tester/Template_TestReport.loan.xlsx
+++ b/Tester/Template_TestReport.loan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8892" tabRatio="803" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="23040" windowHeight="9335" tabRatio="803" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Cover (Tổng quan)" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="425">
   <si>
     <t>TRƯỜNG HỢP KIỂM THỬ</t>
   </si>
@@ -1741,6 +1741,9 @@
   <si>
     <t xml:space="preserve">Bước 1: Mở trang web
 </t>
+  </si>
+  <si>
+    <t>12/06/2020</t>
   </si>
   <si>
     <t>AM07.1</t>
@@ -2101,11 +2104,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -2337,40 +2340,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2384,75 +2355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -2472,17 +2385,100 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2493,6 +2489,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -2567,7 +2570,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2579,25 +2696,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2609,145 +2744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3360,25 +3363,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3392,17 +3386,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3422,17 +3425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3459,15 +3462,15 @@
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3477,139 +3480,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3849,9 +3852,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3916,10 +3916,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3927,22 +3927,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3952,26 +3943,36 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3982,7 +3983,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3992,8 +3992,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4192,7 +4201,7 @@
     <xf numFmtId="58" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4263,6 +4272,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4888,44 +4900,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.57407407407407" style="196" customWidth="1"/>
-    <col min="2" max="2" width="22.4259259259259" style="197" customWidth="1"/>
-    <col min="3" max="3" width="10.5740740740741" style="196" customWidth="1"/>
-    <col min="4" max="4" width="16.5740740740741" style="196" customWidth="1"/>
-    <col min="5" max="5" width="9.13888888888889" style="196" customWidth="1"/>
-    <col min="6" max="6" width="35.5740740740741" style="196" customWidth="1"/>
-    <col min="7" max="7" width="46.5740740740741" style="196" customWidth="1"/>
-    <col min="8" max="16384" width="10.287037037037" style="196"/>
+    <col min="1" max="1" width="2.57407407407407" style="198" customWidth="1"/>
+    <col min="2" max="2" width="22.4259259259259" style="199" customWidth="1"/>
+    <col min="3" max="3" width="10.5740740740741" style="198" customWidth="1"/>
+    <col min="4" max="4" width="16.5740740740741" style="198" customWidth="1"/>
+    <col min="5" max="5" width="9.13888888888889" style="198" customWidth="1"/>
+    <col min="6" max="6" width="35.5740740740741" style="198" customWidth="1"/>
+    <col min="7" max="7" width="46.5740740740741" style="198" customWidth="1"/>
+    <col min="8" max="16384" width="10.287037037037" style="198"/>
   </cols>
   <sheetData>
-    <row r="2" s="193" customFormat="1" ht="31.8" spans="1:9">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="200" t="s">
+    <row r="2" s="195" customFormat="1" ht="31.8" spans="1:9">
+      <c r="A2" s="200"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="I2" s="193" t="s">
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="I2" s="195" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="204"/>
-      <c r="E4" s="205"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207"/>
       <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
@@ -4937,11 +4949,11 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
@@ -4953,205 +4965,205 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="208" t="s">
+      <c r="G6" s="210" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="209" t="s">
+      <c r="G7" s="211" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="16"/>
-      <c r="C8" s="210"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="202"/>
+      <c r="C8" s="212"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="204"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="198" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" s="194" customFormat="1" spans="2:8">
-      <c r="B11" s="212" t="s">
+    <row r="11" s="196" customFormat="1" spans="2:8">
+      <c r="B11" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="213" t="s">
+      <c r="D11" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="213" t="s">
+      <c r="E11" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="213" t="s">
+      <c r="F11" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="214" t="s">
+      <c r="G11" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="193"/>
-    </row>
-    <row r="12" s="195" customFormat="1" spans="2:8">
-      <c r="B12" s="215">
+      <c r="H11" s="195"/>
+    </row>
+    <row r="12" s="197" customFormat="1" spans="2:8">
+      <c r="B12" s="217">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="C12" s="216" t="s">
+        <v>43995.5262268518</v>
+      </c>
+      <c r="C12" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="195" t="s">
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="197" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" s="195" customFormat="1" spans="2:8">
-      <c r="B13" s="215" t="s">
+    <row r="13" s="197" customFormat="1" spans="2:8">
+      <c r="B13" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="216" t="s">
+      <c r="C13" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="217" t="s">
+      <c r="D13" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="217" t="s">
+      <c r="E13" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="217" t="s">
+      <c r="F13" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="228" t="s">
+      <c r="G13" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="195" t="s">
+      <c r="H13" s="197" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" s="195" customFormat="1" spans="2:7">
-      <c r="B14" s="215"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217" t="s">
+    <row r="14" s="197" customFormat="1" spans="2:7">
+      <c r="B14" s="217"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="217"/>
-      <c r="G14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="221"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="196" t="s">
+      <c r="E15" s="198" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="196">
+      <c r="C17" s="198">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="220" t="s">
+      <c r="D18" s="222" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="223" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="221" t="s">
+      <c r="C19" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="221"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="222" t="s">
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="224" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="223">
+      <c r="B20" s="225">
         <v>1</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="227" t="s">
+      <c r="C20" s="226"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="229" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="223">
+      <c r="B21" s="225">
         <v>2</v>
       </c>
-      <c r="C21" s="224"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="227" t="s">
+      <c r="C21" s="226"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="229" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="223">
+      <c r="B22" s="225">
         <v>3</v>
       </c>
-      <c r="C22" s="224"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="227" t="s">
+      <c r="C22" s="226"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="229" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="223">
+      <c r="B23" s="225">
         <v>4</v>
       </c>
-      <c r="C23" s="224"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="227" t="s">
+      <c r="C23" s="226"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="229" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="223">
+      <c r="B24" s="225">
         <v>5</v>
       </c>
-      <c r="C24" s="224"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="226"/>
-      <c r="F24" s="227"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="229"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="223">
+      <c r="B25" s="225">
         <v>6</v>
       </c>
-      <c r="C25" s="224"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="226"/>
-      <c r="F25" s="227"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5177,8 +5189,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
@@ -5213,8 +5225,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5229,8 +5241,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5247,8 +5259,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5271,12 +5283,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
@@ -5316,7 +5328,7 @@
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -5352,7 +5364,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -5368,11 +5380,11 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" s="40" customFormat="1" ht="52.8" spans="1:11">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>318</v>
       </c>
       <c r="B10" s="82"/>
@@ -5382,126 +5394,126 @@
       <c r="D10" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="235" t="s">
+      <c r="E10" s="122"/>
+      <c r="F10" s="237" t="s">
         <v>320</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="128"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>321</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="115" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="92"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="129"/>
       <c r="J11" s="130"/>
-      <c r="K11" s="128"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="66" spans="1:9">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92" t="s">
         <v>326</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="91" t="s">
+      <c r="E12" s="117"/>
+      <c r="F12" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="131"/>
     </row>
     <row r="13" s="40" customFormat="1" ht="52.8" spans="1:9">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>330</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="115" t="s">
         <v>331</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="91" t="s">
+      <c r="E13" s="119"/>
+      <c r="F13" s="90" t="s">
         <v>332</v>
       </c>
       <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="H13" s="120"/>
       <c r="I13" s="129"/>
     </row>
     <row r="14" s="40" customFormat="1" ht="92.4" spans="1:9">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="235" t="s">
         <v>335</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="91" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="90" t="s">
         <v>336</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="129"/>
     </row>
     <row r="15" s="40" customFormat="1" ht="92.4" spans="1:9">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="88" t="s">
         <v>337</v>
       </c>
       <c r="C15" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="115" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="232" t="s">
+      <c r="E15" s="119"/>
+      <c r="F15" s="234" t="s">
         <v>339</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="129"/>
     </row>
     <row r="16" s="40" customFormat="1" ht="79.2" spans="1:9">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="88" t="s">
         <v>340</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="91" t="s">
+      <c r="E16" s="119"/>
+      <c r="F16" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="129"/>
     </row>
   </sheetData>
@@ -5532,8 +5544,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
@@ -5568,8 +5580,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5584,8 +5596,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5602,8 +5614,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5626,12 +5638,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -5639,7 +5651,7 @@
     <row r="6" ht="13.95" spans="1:9">
       <c r="A6" s="61">
         <f>COUNTIF(I10:I971,"Pass")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="62">
         <f>COUNTIF(I12:I971,"Fail")</f>
@@ -5647,7 +5659,7 @@
       </c>
       <c r="C6" s="63">
         <f>G6-E6-B6-A6</f>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="63">
@@ -5660,7 +5672,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
@@ -5671,7 +5683,7 @@
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -5707,7 +5719,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -5723,141 +5735,188 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>343</v>
       </c>
       <c r="B10" s="82"/>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="235" t="s">
         <v>344</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="235" t="s">
+      <c r="E10" s="116"/>
+      <c r="F10" s="237" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="128"/>
+      <c r="G10" s="237" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="87"/>
+      <c r="I10" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="239" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="77" customHeight="1" spans="1:11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="235" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="89"/>
+      <c r="F11" s="234" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="234" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="239" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="233" t="s">
-        <v>346</v>
-      </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="232" t="s">
-        <v>294</v>
-      </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="128"/>
-    </row>
-    <row r="12" s="41" customFormat="1" ht="77" customHeight="1" spans="1:9">
-      <c r="A12" s="89" t="s">
-        <v>347</v>
-      </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="89" t="s">
+      <c r="K11" s="121"/>
+    </row>
+    <row r="12" s="41" customFormat="1" ht="77" customHeight="1" spans="1:10">
+      <c r="A12" s="88" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="233" t="s">
-        <v>348</v>
-      </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="232" t="s">
+      <c r="D12" s="235" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="117"/>
+      <c r="F12" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="131"/>
-    </row>
-    <row r="13" s="40" customFormat="1" ht="91" customHeight="1" spans="1:9">
-      <c r="A13" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="C13" s="89" t="s">
+      <c r="G12" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="118"/>
+      <c r="I12" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" s="40" customFormat="1" ht="91" customHeight="1" spans="1:10">
+      <c r="A13" s="88" t="s">
         <v>350</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="C13" s="88" t="s">
         <v>351</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="91" t="s">
+      <c r="D13" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="119"/>
+      <c r="F13" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="129"/>
-    </row>
-    <row r="14" s="40" customFormat="1" ht="85" customHeight="1" spans="1:9">
-      <c r="A14" s="89" t="s">
-        <v>352</v>
-      </c>
-      <c r="C14" s="89" t="s">
+      <c r="G13" s="90" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="120"/>
+      <c r="I13" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" s="40" customFormat="1" ht="85" customHeight="1" spans="1:10">
+      <c r="A14" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="233" t="s">
-        <v>353</v>
-      </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="91" t="s">
+      <c r="D14" s="235" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" s="119"/>
+      <c r="F14" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="129"/>
-    </row>
-    <row r="15" s="40" customFormat="1" ht="84" customHeight="1" spans="1:9">
-      <c r="A15" s="89" t="s">
-        <v>354</v>
+      <c r="G14" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" s="120"/>
+      <c r="I14" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" s="40" customFormat="1" ht="84" customHeight="1" spans="1:10">
+      <c r="A15" s="88" t="s">
+        <v>355</v>
       </c>
       <c r="C15" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="233" t="s">
-        <v>355</v>
-      </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="232" t="s">
+      <c r="D15" s="235" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" s="119"/>
+      <c r="F15" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="129"/>
-    </row>
-    <row r="16" s="40" customFormat="1" ht="93" customHeight="1" spans="1:9">
-      <c r="A16" s="89" t="s">
-        <v>356</v>
+      <c r="G15" s="234" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="120"/>
+      <c r="I15" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" s="40" customFormat="1" ht="93" customHeight="1" spans="1:10">
+      <c r="A16" s="88" t="s">
+        <v>357</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="D16" s="233" t="s">
-        <v>357</v>
-      </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="91" t="s">
+      <c r="D16" s="235" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="119"/>
+      <c r="F16" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="129"/>
+      <c r="G16" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="H16" s="120"/>
+      <c r="I16" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="239" t="s">
+        <v>345</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5872,7 +5931,7 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10 I11 I12 I13 I14 I15 I16">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5887,8 +5946,8 @@
   <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
@@ -5915,7 +5974,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -5923,8 +5982,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5939,8 +5998,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5957,8 +6016,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5981,12 +6040,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -5994,7 +6053,7 @@
     <row r="6" ht="13.95" spans="1:9">
       <c r="A6" s="61">
         <f>COUNTIF(I10:I972,"Pass")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B6" s="62">
         <f>COUNTIF(I12:I972,"Fail")</f>
@@ -6002,7 +6061,7 @@
       </c>
       <c r="C6" s="63">
         <f>G6-E6-B6-A6</f>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="63">
@@ -6015,7 +6074,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
@@ -6026,7 +6085,7 @@
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -6062,7 +6121,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -6078,186 +6137,258 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
-    </row>
-    <row r="10" s="112" customFormat="1" ht="92.4" spans="1:11">
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
+    </row>
+    <row r="10" s="111" customFormat="1" ht="92.4" spans="1:11">
       <c r="A10" s="81" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B10" s="82"/>
       <c r="C10" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="237" t="s">
-        <v>360</v>
+      <c r="D10" s="240" t="s">
+        <v>361</v>
       </c>
       <c r="E10" s="85"/>
-      <c r="F10" s="235" t="s">
-        <v>361</v>
-      </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-    </row>
-    <row r="11" s="112" customFormat="1" ht="145.2" spans="1:11">
+      <c r="F10" s="237" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="237" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="87"/>
+      <c r="I10" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="239" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="110"/>
+    </row>
+    <row r="11" s="111" customFormat="1" ht="145.2" spans="1:11">
       <c r="A11" s="81" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" s="89"/>
+        <v>363</v>
+      </c>
+      <c r="B11" s="88"/>
       <c r="C11" s="83" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11" s="237" t="s">
         <v>364</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91" t="s">
+      <c r="D11" s="240" t="s">
         <v>365</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-    </row>
-    <row r="12" s="114" customFormat="1" ht="132" spans="1:9">
+      <c r="E11" s="89"/>
+      <c r="F11" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="239" t="s">
+        <v>345</v>
+      </c>
+      <c r="K11" s="110"/>
+    </row>
+    <row r="12" s="112" customFormat="1" ht="132" spans="1:10">
       <c r="A12" s="81" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="93"/>
+        <v>367</v>
+      </c>
+      <c r="B12" s="92"/>
       <c r="C12" s="83" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="237" t="s">
         <v>368</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="91" t="s">
+      <c r="D12" s="240" t="s">
         <v>369</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="113"/>
-    </row>
-    <row r="13" s="112" customFormat="1" ht="132" spans="1:9">
+      <c r="E12" s="93"/>
+      <c r="F12" s="90" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="90" t="s">
+        <v>370</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" s="111" customFormat="1" ht="132" spans="1:10">
       <c r="A13" s="81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>371</v>
-      </c>
-      <c r="D13" s="237" t="s">
         <v>372</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="232" t="s">
+      <c r="D13" s="240" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="113"/>
+      <c r="F13" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="109"/>
-    </row>
-    <row r="14" s="112" customFormat="1" ht="132" spans="1:9">
+      <c r="G13" s="234" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="114"/>
+      <c r="I13" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" s="111" customFormat="1" ht="132" spans="1:10">
       <c r="A14" s="81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="237" t="s">
         <v>375</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="232" t="s">
+      <c r="D14" s="240" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="113"/>
+      <c r="F14" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="109"/>
-    </row>
-    <row r="15" s="112" customFormat="1" ht="132" spans="1:9">
+      <c r="G14" s="234" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="114"/>
+      <c r="I14" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" s="111" customFormat="1" ht="132" spans="1:10">
       <c r="A15" s="81" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C15" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="237" t="s">
-        <v>377</v>
-      </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="232" t="s">
+      <c r="D15" s="240" t="s">
+        <v>378</v>
+      </c>
+      <c r="E15" s="113"/>
+      <c r="F15" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="109"/>
-    </row>
-    <row r="16" s="112" customFormat="1" ht="132" spans="1:9">
+      <c r="G15" s="234" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="114"/>
+      <c r="I15" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" s="111" customFormat="1" ht="132" spans="1:10">
       <c r="A16" s="81" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>379</v>
-      </c>
-      <c r="D16" s="237" t="s">
         <v>380</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="232" t="s">
+      <c r="D16" s="240" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="113"/>
+      <c r="F16" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="109"/>
-    </row>
-    <row r="17" s="112" customFormat="1" ht="145.2" spans="1:9">
+      <c r="G16" s="234" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="114"/>
+      <c r="I16" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" s="111" customFormat="1" ht="145.2" spans="1:10">
       <c r="A17" s="81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="237" t="s">
-        <v>382</v>
-      </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="232" t="s">
+      <c r="D17" s="240" t="s">
         <v>383</v>
       </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="109"/>
-    </row>
-    <row r="18" s="112" customFormat="1" ht="172" customHeight="1" spans="1:6">
+      <c r="E17" s="113"/>
+      <c r="F17" s="234" t="s">
+        <v>384</v>
+      </c>
+      <c r="G17" s="234" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="114"/>
+      <c r="I17" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" s="111" customFormat="1" ht="172" customHeight="1" spans="1:10">
       <c r="A18" s="81" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>385</v>
-      </c>
-      <c r="D18" s="237" t="s">
         <v>386</v>
       </c>
-      <c r="F18" s="238" t="s">
+      <c r="D18" s="240" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="19" s="112" customFormat="1" ht="111" customHeight="1" spans="1:6">
+      <c r="F18" s="241" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" s="241" t="s">
+        <v>388</v>
+      </c>
+      <c r="I18" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="239" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" s="111" customFormat="1" ht="111" customHeight="1" spans="1:10">
       <c r="A19" s="81" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="237" t="s">
         <v>390</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="D19" s="240" t="s">
         <v>391</v>
+      </c>
+      <c r="F19" s="112" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="112" t="s">
+        <v>392</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="239" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6273,7 +6404,7 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I17">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6288,8 +6419,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
@@ -6316,7 +6447,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -6324,8 +6455,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6340,8 +6471,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6358,8 +6489,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6382,12 +6513,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -6395,7 +6526,7 @@
     <row r="6" ht="13.95" spans="1:9">
       <c r="A6" s="61">
         <f>COUNTIF(I10:I967,"Pass")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="62">
         <f>COUNTIF(I12:I967,"Fail")</f>
@@ -6403,7 +6534,7 @@
       </c>
       <c r="C6" s="63">
         <f>G6-E6-B6-A6</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="63">
@@ -6416,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
@@ -6427,7 +6558,7 @@
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -6463,7 +6594,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -6479,83 +6610,101 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" s="40" customFormat="1" ht="79.2" spans="1:15">
       <c r="A10" s="81" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B10" s="82"/>
       <c r="C10" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="237" t="s">
-        <v>394</v>
+      <c r="D10" s="240" t="s">
+        <v>395</v>
       </c>
       <c r="E10" s="85"/>
-      <c r="F10" s="235" t="s">
-        <v>395</v>
-      </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
+      <c r="F10" s="237" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="237" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" s="87"/>
+      <c r="I10" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="239" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="92.4" spans="1:15">
       <c r="A11" s="81" t="s">
-        <v>396</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="237" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88" t="s">
         <v>398</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91" t="s">
+      <c r="D11" s="240" t="s">
         <v>399</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>400</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="239" t="s">
+        <v>345</v>
+      </c>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="79.2" spans="1:15">
       <c r="A12" s="81" t="s">
-        <v>400</v>
-      </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="89" t="s">
         <v>401</v>
       </c>
-      <c r="D12" s="237" t="s">
-        <v>394</v>
-      </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="91" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="88" t="s">
         <v>402</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
+      <c r="D12" s="240" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" s="93"/>
+      <c r="F12" s="90" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" s="90" t="s">
+        <v>403</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="239" t="s">
+        <v>345</v>
+      </c>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6570,7 +6719,7 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10 I11 I12">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6618,7 +6767,7 @@
   <sheetData>
     <row r="1" ht="24.6" spans="2:8">
       <c r="B1" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6642,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
@@ -6651,7 +6800,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6659,7 +6808,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
@@ -6690,10 +6839,10 @@
     <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -6721,17 +6870,17 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="239" t="s">
-        <v>409</v>
+      <c r="C9" s="242" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>93</v>
@@ -6746,7 +6895,7 @@
         <v>102</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6779,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6812,7 +6961,7 @@
         <v>#REF!</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6845,7 +6994,7 @@
         <v>#REF!</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6878,7 +7027,7 @@
         <v>#REF!</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6911,7 +7060,7 @@
         <v>#REF!</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6944,7 +7093,7 @@
         <v>#REF!</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6977,7 +7126,7 @@
         <v>#REF!</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7038,7 +7187,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D20" s="31" t="e">
         <f>SUM(D9:D19)</f>
@@ -7071,27 +7220,27 @@
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E22" s="37" t="e">
         <f>(D20+E20)*100/(H20-G20)</f>
         <v>#REF!</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E23" s="37" t="e">
         <f>D20*100/(H20-G20)</f>
         <v>#REF!</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H23" s="38"/>
     </row>
@@ -7123,31 +7272,31 @@
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="1.57407407407407" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4259259259259" style="167" customWidth="1"/>
-    <col min="3" max="3" width="43.287037037037" style="168" customWidth="1"/>
-    <col min="4" max="4" width="34.8518518518519" style="168" customWidth="1"/>
-    <col min="5" max="5" width="35.712962962963" style="168" customWidth="1"/>
-    <col min="6" max="6" width="42.712962962963" style="168" customWidth="1"/>
+    <col min="2" max="2" width="13.4259259259259" style="169" customWidth="1"/>
+    <col min="3" max="3" width="43.287037037037" style="170" customWidth="1"/>
+    <col min="4" max="4" width="34.8518518518519" style="170" customWidth="1"/>
+    <col min="5" max="5" width="35.712962962963" style="170" customWidth="1"/>
+    <col min="6" max="6" width="42.712962962963" style="170" customWidth="1"/>
     <col min="7" max="16384" width="10.287037037037" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" spans="2:5">
-      <c r="B1" s="169"/>
-      <c r="D1" s="170" t="s">
+      <c r="B1" s="171"/>
+      <c r="D1" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="171"/>
+      <c r="E1" s="173"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="169"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
+      <c r="B2" s="171"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="7" t="str">
         <f>[1]Cover!C4</f>
         <v>HỆ THỐNG SERVICE DIRECTORY</v>
@@ -7156,10 +7305,10 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="7" t="str">
         <f>[1]Cover!C5</f>
         <v>SD_SOF303</v>
@@ -7167,120 +7316,120 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" s="164" customFormat="1" spans="2:6">
-      <c r="B5" s="174" t="s">
+    <row r="5" s="166" customFormat="1" spans="2:6">
+      <c r="B5" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175" t="s">
+      <c r="C5" s="176"/>
+      <c r="D5" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="176"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" s="165" customFormat="1" spans="2:6">
-      <c r="B7" s="177"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-    </row>
-    <row r="8" s="166" customFormat="1" spans="2:6">
-      <c r="B8" s="179" t="s">
+    <row r="7" s="167" customFormat="1" spans="2:6">
+      <c r="B7" s="179"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+    </row>
+    <row r="8" s="168" customFormat="1" spans="2:6">
+      <c r="B8" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="180" t="s">
+      <c r="C8" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="181" t="s">
+      <c r="E8" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="182" t="s">
+      <c r="F8" s="184" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="14.4" spans="2:6">
-      <c r="B9" s="183">
+      <c r="B9" s="185">
         <v>1</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="229" t="s">
+      <c r="D9" s="231" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="187"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
     </row>
     <row r="10" ht="14.4" spans="2:6">
-      <c r="B10" s="183">
+      <c r="B10" s="185">
         <v>2</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="187" t="s">
+      <c r="D10" s="187"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="189" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" ht="14.4" spans="2:6">
-      <c r="B11" s="183">
+      <c r="B11" s="185">
         <v>3</v>
       </c>
-      <c r="C11" s="184"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="187"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="189"/>
     </row>
     <row r="12" ht="14.4" spans="2:6">
-      <c r="B12" s="183">
+      <c r="B12" s="185">
         <v>4</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="187"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
     </row>
     <row r="13" ht="14.4" spans="2:6">
-      <c r="B13" s="183">
+      <c r="B13" s="185">
         <v>5</v>
       </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="187"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="189"/>
     </row>
     <row r="14" ht="14.4" spans="2:6">
-      <c r="B14" s="183">
+      <c r="B14" s="185">
         <v>6</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="187"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="189"/>
     </row>
     <row r="15" ht="14.4" spans="2:6">
-      <c r="B15" s="183">
+      <c r="B15" s="185">
         <v>7</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="230" t="s">
+      <c r="C15" s="191"/>
+      <c r="D15" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="191"/>
-      <c r="F15" s="192"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7312,210 +7461,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21" style="146" customWidth="1"/>
-    <col min="2" max="2" width="38.712962962963" style="146" customWidth="1"/>
-    <col min="3" max="3" width="52.5740740740741" style="146" customWidth="1"/>
-    <col min="4" max="16384" width="10.287037037037" style="146"/>
+    <col min="1" max="1" width="21" style="148" customWidth="1"/>
+    <col min="2" max="2" width="38.712962962963" style="148" customWidth="1"/>
+    <col min="3" max="3" width="52.5740740740741" style="148" customWidth="1"/>
+    <col min="4" max="16384" width="10.287037037037" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" s="144" customFormat="1" ht="24.6" spans="1:3">
-      <c r="A1" s="147"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="149" t="s">
+    <row r="1" s="146" customFormat="1" ht="24.6" spans="1:3">
+      <c r="A1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="151" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" s="144" customFormat="1" ht="13.2" spans="1:3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="150"/>
-    </row>
-    <row r="3" s="144" customFormat="1" ht="13.2" spans="1:3">
-      <c r="A3" s="151" t="s">
+    <row r="2" s="146" customFormat="1" ht="13.2" spans="1:3">
+      <c r="A2" s="149"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="152"/>
+    </row>
+    <row r="3" s="146" customFormat="1" ht="13.2" spans="1:3">
+      <c r="A3" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="152" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154" t="str">
         <f>[1]Cover!C4</f>
         <v>HỆ THỐNG SERVICE DIRECTORY</v>
       </c>
     </row>
-    <row r="4" s="144" customFormat="1" ht="13.2" spans="1:3">
-      <c r="A4" s="151" t="s">
+    <row r="4" s="146" customFormat="1" ht="13.2" spans="1:3">
+      <c r="A4" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="152" t="str">
+      <c r="B4" s="153"/>
+      <c r="C4" s="154" t="str">
         <f>[1]Cover!C5</f>
         <v>SD_SOF303</v>
       </c>
     </row>
-    <row r="5" s="145" customFormat="1" ht="13.2" spans="1:3">
-      <c r="A5" s="153"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="154"/>
+    <row r="5" s="147" customFormat="1" ht="13.2" spans="1:3">
+      <c r="A5" s="155"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="157" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="157" t="s">
+      <c r="B8" s="158"/>
+      <c r="C8" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="146" t="s">
+      <c r="F8" s="148" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="157" t="s">
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="157" t="s">
+      <c r="A10" s="157"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157" t="s">
+      <c r="A11" s="157"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="155"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="157" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="162" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="155"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="160" t="s">
+      <c r="A14" s="157"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="162" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="155"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="157" t="s">
+      <c r="A15" s="157"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="162" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="155"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="157" t="s">
+      <c r="A16" s="157"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="162" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="155"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="157" t="s">
+      <c r="A17" s="157"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="162" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="155"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="146" t="s">
+      <c r="A18" s="157"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="160" t="s">
+      <c r="D18" s="162" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="155"/>
-      <c r="B19" s="156" t="s">
+      <c r="A19" s="157"/>
+      <c r="B19" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="157"/>
+      <c r="C19" s="159"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156" t="s">
+      <c r="A20" s="157"/>
+      <c r="B20" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="157"/>
+      <c r="C20" s="159"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156" t="s">
+      <c r="A21" s="157"/>
+      <c r="B21" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="157"/>
+      <c r="C21" s="159"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156" t="s">
+      <c r="A22" s="157"/>
+      <c r="B22" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="157"/>
+      <c r="C22" s="159"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156" t="s">
+      <c r="A23" s="157"/>
+      <c r="B23" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="157"/>
+      <c r="C23" s="159"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="155"/>
-      <c r="B24" s="156" t="s">
+      <c r="A24" s="157"/>
+      <c r="B24" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="157"/>
+      <c r="C24" s="159"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156" t="s">
+      <c r="A25" s="157"/>
+      <c r="B25" s="158" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="157" t="s">
+      <c r="C25" s="159" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7543,7 +7692,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="3" spans="1:1">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="145" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7609,8 +7758,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7625,8 +7774,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7643,8 +7792,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7667,12 +7816,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -7701,18 +7850,18 @@
         <v>15</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
       <c r="B7" s="68"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="134"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -7748,7 +7897,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -7764,338 +7913,338 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="89" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="231" t="s">
+      <c r="D10" s="233" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="128"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="105.6" spans="1:11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="231" t="s">
+      <c r="D11" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="232" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="234" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="92"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="129"/>
       <c r="J11" s="130"/>
-      <c r="K11" s="128"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="118.8" spans="1:9">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="233" t="s">
+      <c r="D12" s="235" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="114" t="s">
+      <c r="E12" s="117"/>
+      <c r="F12" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="131"/>
     </row>
     <row r="13" s="40" customFormat="1" ht="52.8" spans="1:9">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="231" t="s">
+      <c r="D13" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="234" t="s">
+      <c r="E13" s="119"/>
+      <c r="F13" s="236" t="s">
         <v>131</v>
       </c>
       <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="H13" s="120"/>
       <c r="I13" s="129"/>
     </row>
     <row r="14" s="40" customFormat="1" ht="92.4" spans="1:9">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="231" t="s">
+      <c r="D14" s="233" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="234" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="129"/>
     </row>
     <row r="15" s="40" customFormat="1" ht="92.4" spans="1:9">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="88" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="231" t="s">
+      <c r="D15" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="234" t="s">
+      <c r="E15" s="119"/>
+      <c r="F15" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="129"/>
     </row>
     <row r="16" s="40" customFormat="1" ht="92.4" spans="1:6">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="92" t="s">
         <v>139</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="231" t="s">
+      <c r="D16" s="233" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="234" t="s">
+      <c r="F16" s="236" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="88" t="s">
         <v>142</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="231" t="s">
+      <c r="D17" s="233" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="234" t="s">
+      <c r="E17" s="142"/>
+      <c r="F17" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="141"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="143"/>
       <c r="I17" s="129"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="128"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="92" t="s">
         <v>145</v>
       </c>
       <c r="C18" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="231" t="s">
+      <c r="D18" s="233" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="140"/>
-      <c r="F18" s="234" t="s">
+      <c r="E18" s="142"/>
+      <c r="F18" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="141"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="143"/>
       <c r="I18" s="129"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="128"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="121"/>
     </row>
     <row r="19" s="40" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="88" t="s">
         <v>148</v>
       </c>
       <c r="C19" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="231" t="s">
+      <c r="D19" s="233" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="87" t="s">
+      <c r="E19" s="142"/>
+      <c r="F19" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="141"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="143"/>
       <c r="I19" s="129"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="128"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="92" t="s">
         <v>152</v>
       </c>
       <c r="C20" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="231" t="s">
+      <c r="D20" s="233" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="140"/>
-      <c r="F20" s="87" t="s">
+      <c r="E20" s="142"/>
+      <c r="F20" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="141"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="129"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="128"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="88" t="s">
         <v>156</v>
       </c>
       <c r="C21" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="231" t="s">
+      <c r="D21" s="233" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="87" t="s">
+      <c r="E21" s="142"/>
+      <c r="F21" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="141"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="143"/>
       <c r="I21" s="129"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="128"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" s="40" customFormat="1" ht="105.6" spans="1:11">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="92" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="231" t="s">
+      <c r="D22" s="233" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="140"/>
-      <c r="F22" s="87" t="s">
+      <c r="E22" s="142"/>
+      <c r="F22" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="141"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="143"/>
       <c r="I22" s="129"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="128"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="121"/>
     </row>
     <row r="23" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="88" t="s">
         <v>164</v>
       </c>
       <c r="C23" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="231" t="s">
+      <c r="D23" s="233" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="140"/>
-      <c r="F23" s="87" t="s">
+      <c r="E23" s="142"/>
+      <c r="F23" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="141"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="143"/>
       <c r="I23" s="129"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="128"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
       <c r="C24" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="231" t="s">
+      <c r="D24" s="233" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="140"/>
-      <c r="F24" s="87" t="s">
+      <c r="E24" s="142"/>
+      <c r="F24" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="141"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="143"/>
       <c r="I24" s="129"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="128"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="88" t="s">
         <v>171</v>
       </c>
       <c r="C25" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="231" t="s">
+      <c r="D25" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="140"/>
-      <c r="F25" s="87" t="s">
+      <c r="E25" s="142"/>
+      <c r="F25" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="141"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="143"/>
       <c r="I25" s="129"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="128"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="92" t="s">
         <v>175</v>
       </c>
       <c r="C26" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="231" t="s">
+      <c r="D26" s="233" t="s">
         <v>177</v>
       </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="87" t="s">
+      <c r="E26" s="142"/>
+      <c r="F26" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="141"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="143"/>
       <c r="I26" s="129"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="128"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="121"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="142"/>
+      <c r="C27" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8162,8 +8311,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8178,8 +8327,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8196,8 +8345,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -8220,12 +8369,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -8254,18 +8403,18 @@
         <v>7</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
       <c r="B7" s="68"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="134"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -8301,7 +8450,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -8317,238 +8466,238 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>179</v>
       </c>
       <c r="B10" s="82"/>
       <c r="C10" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="235" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="235" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="237" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="128"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="105.6" spans="1:11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>182</v>
       </c>
       <c r="B11" s="82"/>
       <c r="C11" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="233" t="s">
+      <c r="D11" s="235" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="235" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="237" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="128"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>186</v>
       </c>
       <c r="B12" s="82"/>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="233" t="s">
+      <c r="D12" s="235" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="235" t="s">
+      <c r="E12" s="89"/>
+      <c r="F12" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="128"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="88" t="s">
         <v>188</v>
       </c>
       <c r="B13" s="82"/>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="233" t="s">
+      <c r="D13" s="235" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="235" t="s">
+      <c r="E13" s="89"/>
+      <c r="F13" s="237" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="128"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="235" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="232" t="s">
+      <c r="E14" s="89"/>
+      <c r="F14" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="92"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="129"/>
       <c r="J14" s="130"/>
-      <c r="K14" s="128"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" s="40" customFormat="1" ht="92.4" spans="1:9">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="233" t="s">
+      <c r="D15" s="235" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="232" t="s">
+      <c r="E15" s="119"/>
+      <c r="F15" s="234" t="s">
         <v>131</v>
       </c>
       <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="129"/>
     </row>
     <row r="16" s="40" customFormat="1" ht="118.8" spans="1:9">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="233" t="s">
+      <c r="D16" s="235" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="234" t="s">
+      <c r="E16" s="119"/>
+      <c r="F16" s="236" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="129"/>
     </row>
     <row r="17" s="40" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="233" t="s">
+      <c r="D17" s="235" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="234" t="s">
+      <c r="E17" s="119"/>
+      <c r="F17" s="236" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="120"/>
       <c r="I17" s="129"/>
     </row>
     <row r="18" s="40" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="88" t="s">
         <v>204</v>
       </c>
       <c r="C18" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="233" t="s">
+      <c r="D18" s="235" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="124"/>
-      <c r="F18" s="234" t="s">
+      <c r="E18" s="119"/>
+      <c r="F18" s="236" t="s">
         <v>203</v>
       </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="129"/>
     </row>
     <row r="19" s="40" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="233" t="s">
+      <c r="D19" s="235" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="124"/>
-      <c r="F19" s="234" t="s">
+      <c r="E19" s="119"/>
+      <c r="F19" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="129"/>
     </row>
     <row r="20" s="40" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="233" t="s">
+      <c r="D20" s="235" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="234" t="s">
+      <c r="E20" s="119"/>
+      <c r="F20" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="120"/>
       <c r="I20" s="129"/>
     </row>
     <row r="21" s="40" customFormat="1" ht="66" spans="1:9">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="233" t="s">
+      <c r="D21" s="235" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="234" t="s">
+      <c r="E21" s="119"/>
+      <c r="F21" s="236" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="120"/>
       <c r="I21" s="129"/>
     </row>
   </sheetData>
@@ -8615,8 +8764,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8631,8 +8780,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8649,8 +8798,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -8673,12 +8822,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -8707,18 +8856,18 @@
         <v>5</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
       <c r="B7" s="68"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="134"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -8754,7 +8903,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -8770,140 +8919,140 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="108"/>
-    </row>
-    <row r="10" s="133" customFormat="1" ht="52.8" spans="1:11">
-      <c r="A10" s="89" t="s">
+      <c r="J9" s="137"/>
+      <c r="K9" s="107"/>
+    </row>
+    <row r="10" s="132" customFormat="1" ht="52.8" spans="1:11">
+      <c r="A10" s="88" t="s">
         <v>215</v>
       </c>
       <c r="B10" s="82"/>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="235" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="236" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="238" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="128"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="39.75" customHeight="1" spans="1:11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="233" t="s">
+      <c r="D11" s="235" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="232" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="234" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="92"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="129"/>
       <c r="J11" s="130"/>
-      <c r="K11" s="128"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="138" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="233" t="s">
+      <c r="D12" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="232" t="s">
+      <c r="E12" s="117"/>
+      <c r="F12" s="234" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="131"/>
     </row>
     <row r="13" s="40" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="140" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="233" t="s">
+      <c r="D13" s="235" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="232" t="s">
+      <c r="E13" s="119"/>
+      <c r="F13" s="234" t="s">
         <v>229</v>
       </c>
       <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="H13" s="120"/>
       <c r="I13" s="129"/>
     </row>
-    <row r="14" s="133" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A14" s="89" t="s">
+    <row r="14" s="132" customFormat="1" ht="39.6" spans="1:9">
+      <c r="A14" s="88" t="s">
         <v>230</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="235" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="232" t="s">
+      <c r="E14" s="120"/>
+      <c r="F14" s="234" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="129"/>
     </row>
-    <row r="15" s="133" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A15" s="89" t="s">
+    <row r="15" s="132" customFormat="1" ht="39.6" spans="1:9">
+      <c r="A15" s="88" t="s">
         <v>234</v>
       </c>
       <c r="C15" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="233" t="s">
+      <c r="D15" s="235" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="234" t="s">
+      <c r="E15" s="120"/>
+      <c r="F15" s="236" t="s">
         <v>237</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="129"/>
     </row>
-    <row r="16" s="133" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A16" s="89" t="s">
+    <row r="16" s="132" customFormat="1" ht="39.6" spans="1:9">
+      <c r="A16" s="88" t="s">
         <v>238</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="233" t="s">
+      <c r="D16" s="235" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="234" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="236" t="s">
         <v>241</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="129"/>
     </row>
   </sheetData>
@@ -8970,8 +9119,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8986,8 +9135,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9004,8 +9153,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9028,12 +9177,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -9062,18 +9211,18 @@
         <v>13</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
       <c r="B7" s="68"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="134"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -9109,7 +9258,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -9125,278 +9274,278 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="108"/>
-    </row>
-    <row r="10" s="87" customFormat="1" ht="79.2" spans="1:11">
-      <c r="A10" s="135" t="s">
+      <c r="J9" s="137"/>
+      <c r="K9" s="107"/>
+    </row>
+    <row r="10" s="123" customFormat="1" ht="79.2" spans="1:11">
+      <c r="A10" s="134" t="s">
         <v>243</v>
       </c>
       <c r="B10" s="82"/>
       <c r="C10" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="235" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="235" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="237" t="s">
         <v>245</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-    </row>
-    <row r="11" s="112" customFormat="1" ht="66" spans="1:11">
-      <c r="A11" s="135" t="s">
+      <c r="H10" s="87"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="110"/>
+    </row>
+    <row r="11" s="111" customFormat="1" ht="66" spans="1:11">
+      <c r="A11" s="134" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="233" t="s">
+      <c r="D11" s="235" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="232" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="234" t="s">
         <v>248</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-    </row>
-    <row r="12" s="114" customFormat="1" ht="132" spans="1:9">
-      <c r="A12" s="135" t="s">
+      <c r="G11" s="123"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="110"/>
+    </row>
+    <row r="12" s="112" customFormat="1" ht="132" spans="1:9">
+      <c r="A12" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="93"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="233" t="s">
+      <c r="D12" s="235" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="232" t="s">
+      <c r="E12" s="93"/>
+      <c r="F12" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="113"/>
-    </row>
-    <row r="13" s="112" customFormat="1" ht="132" spans="1:9">
-      <c r="A13" s="135" t="s">
+      <c r="G12" s="90"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="138"/>
+    </row>
+    <row r="13" s="111" customFormat="1" ht="132" spans="1:9">
+      <c r="A13" s="134" t="s">
         <v>252</v>
       </c>
       <c r="C13" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="D13" s="233" t="s">
+      <c r="D13" s="235" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="232" t="s">
+      <c r="E13" s="113"/>
+      <c r="F13" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="109"/>
-    </row>
-    <row r="14" s="87" customFormat="1" ht="132" spans="1:9">
-      <c r="A14" s="135" t="s">
+      <c r="G13" s="135"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="127"/>
+    </row>
+    <row r="14" s="123" customFormat="1" ht="132" spans="1:9">
+      <c r="A14" s="134" t="s">
         <v>255</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="235" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="232" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="109"/>
-    </row>
-    <row r="15" s="87" customFormat="1" ht="132" spans="1:9">
-      <c r="A15" s="135" t="s">
+      <c r="G14" s="136"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="127"/>
+    </row>
+    <row r="15" s="123" customFormat="1" ht="132" spans="1:9">
+      <c r="A15" s="134" t="s">
         <v>257</v>
       </c>
       <c r="C15" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="233" t="s">
+      <c r="D15" s="235" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="232" t="s">
+      <c r="E15" s="114"/>
+      <c r="F15" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="109"/>
-    </row>
-    <row r="16" s="87" customFormat="1" ht="132" spans="1:9">
-      <c r="A16" s="135" t="s">
+      <c r="G15" s="136"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="127"/>
+    </row>
+    <row r="16" s="123" customFormat="1" ht="132" spans="1:9">
+      <c r="A16" s="134" t="s">
         <v>259</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="233" t="s">
+      <c r="D16" s="235" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="117"/>
-      <c r="F16" s="232" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="109"/>
-    </row>
-    <row r="17" s="87" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A17" s="135" t="s">
+      <c r="G16" s="136"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="127"/>
+    </row>
+    <row r="17" s="123" customFormat="1" ht="145.2" spans="1:9">
+      <c r="A17" s="134" t="s">
         <v>262</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="233" t="s">
+      <c r="D17" s="235" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="117"/>
-      <c r="F17" s="234" t="s">
+      <c r="E17" s="114"/>
+      <c r="F17" s="236" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="109"/>
-    </row>
-    <row r="18" s="87" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A18" s="135" t="s">
+      <c r="G17" s="136"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="127"/>
+    </row>
+    <row r="18" s="123" customFormat="1" ht="145.2" spans="1:9">
+      <c r="A18" s="134" t="s">
         <v>264</v>
       </c>
       <c r="C18" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="233" t="s">
+      <c r="D18" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="234" t="s">
+      <c r="E18" s="114"/>
+      <c r="F18" s="236" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="118"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="109"/>
-    </row>
-    <row r="19" s="87" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A19" s="135" t="s">
+      <c r="G18" s="136"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="127"/>
+    </row>
+    <row r="19" s="123" customFormat="1" ht="145.2" spans="1:9">
+      <c r="A19" s="134" t="s">
         <v>266</v>
       </c>
       <c r="C19" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="233" t="s">
+      <c r="D19" s="235" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="234" t="s">
+      <c r="E19" s="114"/>
+      <c r="F19" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="109"/>
-    </row>
-    <row r="20" s="87" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A20" s="135" t="s">
+      <c r="G19" s="136"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="127"/>
+    </row>
+    <row r="20" s="123" customFormat="1" ht="145.2" spans="1:9">
+      <c r="A20" s="134" t="s">
         <v>268</v>
       </c>
       <c r="C20" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="233" t="s">
+      <c r="D20" s="235" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="234" t="s">
+      <c r="E20" s="114"/>
+      <c r="F20" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="109"/>
-    </row>
-    <row r="21" s="87" customFormat="1" ht="158.4" spans="1:9">
-      <c r="A21" s="135" t="s">
+      <c r="G20" s="136"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="127"/>
+    </row>
+    <row r="21" s="123" customFormat="1" ht="158.4" spans="1:9">
+      <c r="A21" s="134" t="s">
         <v>270</v>
       </c>
       <c r="C21" s="82" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="233" t="s">
+      <c r="D21" s="235" t="s">
         <v>272</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="234" t="s">
+      <c r="E21" s="114"/>
+      <c r="F21" s="236" t="s">
         <v>273</v>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="109"/>
-    </row>
-    <row r="22" s="87" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A22" s="135" t="s">
+      <c r="G21" s="136"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="127"/>
+    </row>
+    <row r="22" s="123" customFormat="1" ht="145.2" spans="1:9">
+      <c r="A22" s="134" t="s">
         <v>274</v>
       </c>
       <c r="C22" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="233" t="s">
+      <c r="D22" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="E22" s="117"/>
-      <c r="F22" s="234" t="s">
+      <c r="E22" s="114"/>
+      <c r="F22" s="236" t="s">
         <v>277</v>
       </c>
-      <c r="G22" s="118"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" s="87" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A23" s="135" t="s">
+      <c r="G22" s="136"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="127"/>
+    </row>
+    <row r="23" s="123" customFormat="1" ht="145.2" spans="1:9">
+      <c r="A23" s="134" t="s">
         <v>278</v>
       </c>
       <c r="C23" s="82" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="233" t="s">
+      <c r="D23" s="235" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="234" t="s">
+      <c r="E23" s="114"/>
+      <c r="F23" s="236" t="s">
         <v>281</v>
       </c>
-      <c r="G23" s="118"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="109"/>
-    </row>
-    <row r="24" s="133" customFormat="1" ht="99.75" customHeight="1" spans="1:6">
-      <c r="A24" s="135" t="s">
+      <c r="G23" s="136"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="127"/>
+    </row>
+    <row r="24" s="132" customFormat="1" ht="99.75" customHeight="1" spans="1:6">
+      <c r="A24" s="134" t="s">
         <v>282</v>
       </c>
       <c r="C24" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="233" t="s">
+      <c r="D24" s="235" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="123" t="s">
         <v>285</v>
       </c>
     </row>
@@ -9464,8 +9613,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="96"/>
-      <c r="O2" s="97" t="s">
+      <c r="I2" s="95"/>
+      <c r="O2" s="96" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9480,8 +9629,8 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="I3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9498,8 +9647,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="98"/>
-      <c r="O4" s="100" t="s">
+      <c r="I4" s="97"/>
+      <c r="O4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9522,12 +9671,12 @@
         <v>101</v>
       </c>
       <c r="H5" s="60"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="102">
+      <c r="I5" s="100"/>
+      <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43994.8114583333</v>
-      </c>
-      <c r="L5" s="103"/>
+        <v>43995.5262268518</v>
+      </c>
+      <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
         <v>102</v>
       </c>
@@ -9556,7 +9705,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="104"/>
+      <c r="I6" s="103"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
@@ -9567,7 +9716,7 @@
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="105"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
       <c r="A8" s="75" t="s">
@@ -9603,7 +9752,7 @@
       <c r="K8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77"/>
@@ -9619,159 +9768,159 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" s="40" customFormat="1" ht="89.1" customHeight="1" spans="1:11">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>288</v>
       </c>
       <c r="B10" s="82"/>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="235" t="s">
+      <c r="E10" s="115"/>
+      <c r="F10" s="237" t="s">
         <v>290</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="128"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="87.95" customHeight="1" spans="1:11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="233" t="s">
+      <c r="D11" s="235" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="232" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="234" t="s">
         <v>294</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="92"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="129"/>
       <c r="J11" s="130"/>
-      <c r="K11" s="128"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="117" customHeight="1" spans="1:9">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="233" t="s">
+      <c r="D12" s="235" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="232" t="s">
+      <c r="E12" s="117"/>
+      <c r="F12" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="131"/>
     </row>
     <row r="13" s="41" customFormat="1" ht="90.95" customHeight="1" spans="1:9">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="D13" s="233" t="s">
+      <c r="D13" s="235" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="232" t="s">
+      <c r="E13" s="117"/>
+      <c r="F13" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="131"/>
     </row>
     <row r="14" s="40" customFormat="1" ht="69.95" customHeight="1" spans="1:9">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="235" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="91" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="129"/>
     </row>
     <row r="15" s="40" customFormat="1" ht="98.1" customHeight="1" spans="1:9">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="88" t="s">
         <v>305</v>
       </c>
       <c r="C15" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="233" t="s">
+      <c r="D15" s="235" t="s">
         <v>307</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="91" t="s">
+      <c r="E15" s="119"/>
+      <c r="F15" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="129"/>
     </row>
     <row r="16" s="40" customFormat="1" ht="80.1" customHeight="1" spans="1:9">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="88" t="s">
         <v>309</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="115" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="91" t="s">
+      <c r="E16" s="119"/>
+      <c r="F16" s="90" t="s">
         <v>312</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="129"/>
     </row>
     <row r="17" s="40" customFormat="1" ht="93" customHeight="1" spans="1:9">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="88" t="s">
         <v>313</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="115" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="91" t="s">
+      <c r="E17" s="119"/>
+      <c r="F17" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="120"/>
       <c r="I17" s="129"/>
     </row>
   </sheetData>

--- a/Tester/Template_TestReport.loan.xlsx
+++ b/Tester/Template_TestReport.loan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" tabRatio="803" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="23040" windowHeight="8892" tabRatio="803" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Cover (Tổng quan)" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="427">
   <si>
     <t>TRƯỜNG HỢP KIỂM THỬ</t>
   </si>
@@ -1646,6 +1646,9 @@
 -size 16; Mã màu button #32CD32,fontSize: 16, color: '#fff' </t>
   </si>
   <si>
+    <t>13/06/2020</t>
+  </si>
+  <si>
     <t>QMK06.1</t>
   </si>
   <si>
@@ -1905,6 +1908,9 @@
 Bước 7: Nhập dữ liệu vào ô tên nhân viên
 Bước 8: Nhập dữ liệu vào ô địa chỉ
 Bước 9: Ấn nút tạo mới</t>
+  </si>
+  <si>
+    <t>C08.1 - RQ08 Đăng nhập admin</t>
   </si>
   <si>
     <t>TNV08.6</t>
@@ -2103,12 +2109,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -2341,15 +2347,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2363,9 +2375,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2373,6 +2408,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2385,14 +2428,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2422,9 +2458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2446,39 +2481,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2489,13 +2502,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -2570,7 +2576,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2588,31 +2630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2630,31 +2660,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,25 +2714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2702,55 +2750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3362,26 +3368,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3401,15 +3407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3425,17 +3422,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3449,26 +3451,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3480,137 +3486,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="39" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="32" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3620,7 +3626,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3962,53 +3968,53 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4201,7 +4207,7 @@
     <xf numFmtId="58" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4210,7 +4216,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5027,7 +5033,7 @@
     <row r="12" s="197" customFormat="1" spans="2:8">
       <c r="B12" s="217">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="C12" s="218" t="s">
         <v>23</v>
@@ -5189,8 +5195,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
@@ -5286,7 +5292,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -5296,7 +5302,7 @@
     <row r="6" ht="13.95" spans="1:9">
       <c r="A6" s="61">
         <f>COUNTIF(I10:I971,"Pass")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="62">
         <f>COUNTIF(I12:I971,"Fail")</f>
@@ -5304,7 +5310,7 @@
       </c>
       <c r="C6" s="63">
         <f>G6-E6-B6-A6</f>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="63">
@@ -5398,123 +5404,170 @@
       <c r="F10" s="237" t="s">
         <v>320</v>
       </c>
-      <c r="G10" s="123"/>
+      <c r="G10" s="237" t="s">
+        <v>320</v>
+      </c>
       <c r="H10" s="87"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="I10" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="239" t="s">
+        <v>321</v>
+      </c>
       <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="92.4" spans="1:11">
       <c r="A11" s="88" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B11" s="88"/>
       <c r="C11" s="88" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E11" s="89"/>
       <c r="F11" s="90" t="s">
-        <v>324</v>
-      </c>
-      <c r="G11" s="123"/>
+        <v>325</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>325</v>
+      </c>
       <c r="H11" s="91"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="I11" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="239" t="s">
+        <v>321</v>
+      </c>
       <c r="K11" s="121"/>
     </row>
-    <row r="12" s="41" customFormat="1" ht="66" spans="1:9">
+    <row r="12" s="41" customFormat="1" ht="66" spans="1:10">
       <c r="A12" s="88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E12" s="117"/>
       <c r="F12" s="90" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" s="124"/>
+        <v>329</v>
+      </c>
+      <c r="G12" s="90" t="s">
+        <v>329</v>
+      </c>
       <c r="H12" s="118"/>
-      <c r="I12" s="131"/>
-    </row>
-    <row r="13" s="40" customFormat="1" ht="52.8" spans="1:9">
+      <c r="I12" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="239" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" s="40" customFormat="1" ht="52.8" spans="1:10">
       <c r="A13" s="88" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E13" s="119"/>
       <c r="F13" s="90" t="s">
-        <v>332</v>
-      </c>
-      <c r="G13" s="125"/>
+        <v>333</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>333</v>
+      </c>
       <c r="H13" s="120"/>
-      <c r="I13" s="129"/>
-    </row>
-    <row r="14" s="40" customFormat="1" ht="92.4" spans="1:9">
+      <c r="I13" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="239" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" s="40" customFormat="1" ht="92.4" spans="1:10">
       <c r="A14" s="88" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D14" s="235" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E14" s="119"/>
       <c r="F14" s="90" t="s">
-        <v>336</v>
-      </c>
-      <c r="G14" s="126"/>
+        <v>337</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>337</v>
+      </c>
       <c r="H14" s="120"/>
-      <c r="I14" s="129"/>
-    </row>
-    <row r="15" s="40" customFormat="1" ht="92.4" spans="1:9">
+      <c r="I14" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="239" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" s="40" customFormat="1" ht="92.4" spans="1:10">
       <c r="A15" s="88" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E15" s="119"/>
       <c r="F15" s="234" t="s">
-        <v>339</v>
-      </c>
-      <c r="G15" s="126"/>
+        <v>340</v>
+      </c>
+      <c r="G15" s="234" t="s">
+        <v>340</v>
+      </c>
       <c r="H15" s="120"/>
-      <c r="I15" s="129"/>
-    </row>
-    <row r="16" s="40" customFormat="1" ht="79.2" spans="1:9">
+      <c r="I15" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="239" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" s="40" customFormat="1" ht="79.2" spans="1:10">
       <c r="A16" s="88" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>211</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E16" s="119"/>
       <c r="F16" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="126"/>
+      <c r="G16" s="90" t="s">
+        <v>213</v>
+      </c>
       <c r="H16" s="120"/>
-      <c r="I16" s="129"/>
+      <c r="I16" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="239" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5529,7 +5582,7 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10 I11 I12 I13 I14 I15 I16">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5544,8 +5597,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
@@ -5572,7 +5625,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -5641,7 +5694,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -5740,14 +5793,14 @@
     </row>
     <row r="10" s="40" customFormat="1" ht="118.8" spans="1:11">
       <c r="A10" s="88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B10" s="82"/>
       <c r="C10" s="88" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="235" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E10" s="116"/>
       <c r="F10" s="237" t="s">
@@ -5761,20 +5814,20 @@
         <v>93</v>
       </c>
       <c r="J10" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="77" customHeight="1" spans="1:11">
       <c r="A11" s="88" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B11" s="88"/>
       <c r="C11" s="88" t="s">
         <v>292</v>
       </c>
       <c r="D11" s="235" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E11" s="89"/>
       <c r="F11" s="234" t="s">
@@ -5788,20 +5841,20 @@
         <v>93</v>
       </c>
       <c r="J11" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" s="121"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="77" customHeight="1" spans="1:10">
       <c r="A12" s="88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="88" t="s">
         <v>296</v>
       </c>
       <c r="D12" s="235" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E12" s="117"/>
       <c r="F12" s="90" t="s">
@@ -5815,43 +5868,43 @@
         <v>93</v>
       </c>
       <c r="J12" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" s="40" customFormat="1" ht="91" customHeight="1" spans="1:10">
       <c r="A13" s="88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E13" s="119"/>
       <c r="F13" s="90" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G13" s="90" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H13" s="120"/>
       <c r="I13" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J13" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" s="40" customFormat="1" ht="85" customHeight="1" spans="1:10">
       <c r="A14" s="88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C14" s="88" t="s">
         <v>302</v>
       </c>
       <c r="D14" s="235" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E14" s="119"/>
       <c r="F14" s="90" t="s">
@@ -5865,18 +5918,18 @@
         <v>93</v>
       </c>
       <c r="J14" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" s="40" customFormat="1" ht="84" customHeight="1" spans="1:10">
       <c r="A15" s="88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C15" s="83" t="s">
         <v>299</v>
       </c>
       <c r="D15" s="235" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E15" s="119"/>
       <c r="F15" s="234" t="s">
@@ -5890,18 +5943,18 @@
         <v>93</v>
       </c>
       <c r="J15" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" s="40" customFormat="1" ht="93" customHeight="1" spans="1:10">
       <c r="A16" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>306</v>
       </c>
       <c r="D16" s="235" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E16" s="119"/>
       <c r="F16" s="90" t="s">
@@ -5915,7 +5968,7 @@
         <v>93</v>
       </c>
       <c r="J16" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5946,8 +5999,8 @@
   <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
@@ -5974,7 +6027,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -6043,7 +6096,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -6142,93 +6195,93 @@
     </row>
     <row r="10" s="111" customFormat="1" ht="92.4" spans="1:11">
       <c r="A10" s="81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B10" s="82"/>
       <c r="C10" s="83" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="240" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="237" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G10" s="237" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J10" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" s="110"/>
     </row>
     <row r="11" s="111" customFormat="1" ht="145.2" spans="1:11">
       <c r="A11" s="81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B11" s="88"/>
       <c r="C11" s="83" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D11" s="240" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E11" s="89"/>
       <c r="F11" s="90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G11" s="90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J11" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" s="110"/>
     </row>
     <row r="12" s="112" customFormat="1" ht="132" spans="1:10">
       <c r="A12" s="81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="83" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D12" s="240" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="90" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G12" s="90" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H12" s="94"/>
       <c r="I12" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J12" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" s="111" customFormat="1" ht="132" spans="1:10">
       <c r="A13" s="81" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D13" s="240" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E13" s="113"/>
       <c r="F13" s="234" t="s">
@@ -6242,18 +6295,18 @@
         <v>93</v>
       </c>
       <c r="J13" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" s="111" customFormat="1" ht="132" spans="1:10">
       <c r="A14" s="81" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D14" s="240" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="234" t="s">
@@ -6267,18 +6320,18 @@
         <v>93</v>
       </c>
       <c r="J14" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" s="111" customFormat="1" ht="132" spans="1:10">
       <c r="A15" s="81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C15" s="83" t="s">
         <v>296</v>
       </c>
       <c r="D15" s="240" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E15" s="113"/>
       <c r="F15" s="234" t="s">
@@ -6287,23 +6340,25 @@
       <c r="G15" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="114"/>
+      <c r="H15" s="114" t="s">
+        <v>380</v>
+      </c>
       <c r="I15" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J15" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" s="111" customFormat="1" ht="132" spans="1:10">
       <c r="A16" s="81" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D16" s="240" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E16" s="113"/>
       <c r="F16" s="234" t="s">
@@ -6312,83 +6367,93 @@
       <c r="G16" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="114"/>
+      <c r="H16" s="114" t="s">
+        <v>380</v>
+      </c>
       <c r="I16" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J16" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" s="111" customFormat="1" ht="145.2" spans="1:10">
       <c r="A17" s="81" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>125</v>
       </c>
       <c r="D17" s="240" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E17" s="113"/>
       <c r="F17" s="234" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G17" s="234" t="s">
-        <v>384</v>
-      </c>
-      <c r="H17" s="114"/>
+        <v>386</v>
+      </c>
+      <c r="H17" s="114" t="s">
+        <v>380</v>
+      </c>
       <c r="I17" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J17" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" s="111" customFormat="1" ht="172" customHeight="1" spans="1:10">
       <c r="A18" s="81" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D18" s="240" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F18" s="241" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G18" s="241" t="s">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="H18" s="111" t="s">
+        <v>380</v>
       </c>
       <c r="I18" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" s="111" customFormat="1" ht="111" customHeight="1" spans="1:10">
       <c r="A19" s="81" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D19" s="240" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F19" s="112" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G19" s="112" t="s">
-        <v>392</v>
+        <v>394</v>
+      </c>
+      <c r="H19" s="111" t="s">
+        <v>380</v>
       </c>
       <c r="I19" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J19" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6419,7 +6484,7 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6447,7 +6512,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -6516,7 +6581,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -6615,28 +6680,28 @@
     </row>
     <row r="10" s="40" customFormat="1" ht="79.2" spans="1:15">
       <c r="A10" s="81" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B10" s="82"/>
       <c r="C10" s="83" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="240" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="237" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G10" s="237" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J10" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" s="110"/>
       <c r="L10" s="111"/>
@@ -6646,28 +6711,28 @@
     </row>
     <row r="11" s="40" customFormat="1" ht="92.4" spans="1:15">
       <c r="A11" s="81" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B11" s="88"/>
       <c r="C11" s="88" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D11" s="240" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E11" s="89"/>
       <c r="F11" s="90" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G11" s="90" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J11" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" s="110"/>
       <c r="L11" s="111"/>
@@ -6677,28 +6742,28 @@
     </row>
     <row r="12" s="41" customFormat="1" ht="79.2" spans="1:15">
       <c r="A12" s="81" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="88" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D12" s="240" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="90" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G12" s="90" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H12" s="94"/>
       <c r="I12" s="108" t="s">
         <v>93</v>
       </c>
       <c r="J12" s="239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" s="112"/>
       <c r="L12" s="112"/>
@@ -6767,7 +6832,7 @@
   <sheetData>
     <row r="1" ht="24.6" spans="2:8">
       <c r="B1" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6791,7 +6856,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
@@ -6800,7 +6865,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6808,7 +6873,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
@@ -6839,10 +6904,10 @@
     <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -6871,16 +6936,16 @@
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="242" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>93</v>
@@ -6895,7 +6960,7 @@
         <v>102</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6928,7 +6993,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6961,7 +7026,7 @@
         <v>#REF!</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6994,7 +7059,7 @@
         <v>#REF!</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7027,7 +7092,7 @@
         <v>#REF!</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7060,7 +7125,7 @@
         <v>#REF!</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7093,7 +7158,7 @@
         <v>#REF!</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7126,7 +7191,7 @@
         <v>#REF!</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7187,7 +7252,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D20" s="31" t="e">
         <f>SUM(D9:D19)</f>
@@ -7220,27 +7285,27 @@
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E22" s="37" t="e">
         <f>(D20+E20)*100/(H20-G20)</f>
         <v>#REF!</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="36" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E23" s="37" t="e">
         <f>D20*100/(H20-G20)</f>
         <v>#REF!</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H23" s="38"/>
     </row>
@@ -7819,7 +7884,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -7857,7 +7922,7 @@
       <c r="B7" s="68"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="133"/>
+      <c r="E7" s="132"/>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
@@ -7913,7 +7978,7 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="137"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="107"/>
     </row>
     <row r="10" s="40" customFormat="1" ht="92.4" spans="1:11">
@@ -7933,8 +7998,8 @@
       </c>
       <c r="G10" s="123"/>
       <c r="H10" s="87"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="105.6" spans="1:11">
@@ -7953,8 +8018,8 @@
       </c>
       <c r="G11" s="123"/>
       <c r="H11" s="91"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="121"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="118.8" spans="1:9">
@@ -7973,7 +8038,7 @@
       </c>
       <c r="G12" s="124"/>
       <c r="H12" s="118"/>
-      <c r="I12" s="131"/>
+      <c r="I12" s="130"/>
     </row>
     <row r="13" s="40" customFormat="1" ht="52.8" spans="1:9">
       <c r="A13" s="88" t="s">
@@ -7989,9 +8054,9 @@
       <c r="F13" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="125"/>
+      <c r="G13" s="140"/>
       <c r="H13" s="120"/>
-      <c r="I13" s="129"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" s="40" customFormat="1" ht="92.4" spans="1:9">
       <c r="A14" s="92" t="s">
@@ -8007,9 +8072,9 @@
       <c r="F14" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="126"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="120"/>
-      <c r="I14" s="129"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" s="40" customFormat="1" ht="92.4" spans="1:9">
       <c r="A15" s="88" t="s">
@@ -8025,9 +8090,9 @@
       <c r="F15" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="126"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="120"/>
-      <c r="I15" s="129"/>
+      <c r="I15" s="128"/>
     </row>
     <row r="16" s="40" customFormat="1" ht="92.4" spans="1:6">
       <c r="A16" s="92" t="s">
@@ -8057,9 +8122,9 @@
       <c r="F17" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="132"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="143"/>
-      <c r="I17" s="129"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="142"/>
       <c r="K17" s="121"/>
     </row>
@@ -8077,9 +8142,9 @@
       <c r="F18" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="132"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="143"/>
-      <c r="I18" s="129"/>
+      <c r="I18" s="128"/>
       <c r="J18" s="142"/>
       <c r="K18" s="121"/>
     </row>
@@ -8097,9 +8162,9 @@
       <c r="F19" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="132"/>
+      <c r="G19" s="131"/>
       <c r="H19" s="143"/>
-      <c r="I19" s="129"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="142"/>
       <c r="K19" s="121"/>
     </row>
@@ -8117,9 +8182,9 @@
       <c r="F20" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="132"/>
+      <c r="G20" s="131"/>
       <c r="H20" s="143"/>
-      <c r="I20" s="129"/>
+      <c r="I20" s="128"/>
       <c r="J20" s="142"/>
       <c r="K20" s="121"/>
     </row>
@@ -8137,9 +8202,9 @@
       <c r="F21" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="132"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="143"/>
-      <c r="I21" s="129"/>
+      <c r="I21" s="128"/>
       <c r="J21" s="142"/>
       <c r="K21" s="121"/>
     </row>
@@ -8157,9 +8222,9 @@
       <c r="F22" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="132"/>
+      <c r="G22" s="131"/>
       <c r="H22" s="143"/>
-      <c r="I22" s="129"/>
+      <c r="I22" s="128"/>
       <c r="J22" s="142"/>
       <c r="K22" s="121"/>
     </row>
@@ -8177,9 +8242,9 @@
       <c r="F23" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="132"/>
+      <c r="G23" s="131"/>
       <c r="H23" s="143"/>
-      <c r="I23" s="129"/>
+      <c r="I23" s="128"/>
       <c r="J23" s="142"/>
       <c r="K23" s="121"/>
     </row>
@@ -8197,9 +8262,9 @@
       <c r="F24" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="132"/>
+      <c r="G24" s="131"/>
       <c r="H24" s="143"/>
-      <c r="I24" s="129"/>
+      <c r="I24" s="128"/>
       <c r="J24" s="142"/>
       <c r="K24" s="121"/>
     </row>
@@ -8217,9 +8282,9 @@
       <c r="F25" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="132"/>
+      <c r="G25" s="131"/>
       <c r="H25" s="143"/>
-      <c r="I25" s="129"/>
+      <c r="I25" s="128"/>
       <c r="J25" s="142"/>
       <c r="K25" s="121"/>
     </row>
@@ -8237,9 +8302,9 @@
       <c r="F26" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="132"/>
+      <c r="G26" s="131"/>
       <c r="H26" s="143"/>
-      <c r="I26" s="129"/>
+      <c r="I26" s="128"/>
       <c r="J26" s="142"/>
       <c r="K26" s="121"/>
     </row>
@@ -8372,7 +8437,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -8410,7 +8475,7 @@
       <c r="B7" s="68"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="133"/>
+      <c r="E7" s="132"/>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
@@ -8466,7 +8531,7 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="137"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="107"/>
     </row>
     <row r="10" s="40" customFormat="1" ht="118.8" spans="1:11">
@@ -8486,8 +8551,8 @@
       </c>
       <c r="G10" s="123"/>
       <c r="H10" s="87"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="105.6" spans="1:11">
@@ -8507,8 +8572,8 @@
       </c>
       <c r="G11" s="123"/>
       <c r="H11" s="87"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="121"/>
     </row>
     <row r="12" s="40" customFormat="1" ht="92.4" spans="1:11">
@@ -8528,8 +8593,8 @@
       </c>
       <c r="G12" s="123"/>
       <c r="H12" s="87"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="121"/>
     </row>
     <row r="13" s="40" customFormat="1" ht="118.8" spans="1:11">
@@ -8549,8 +8614,8 @@
       </c>
       <c r="G13" s="123"/>
       <c r="H13" s="87"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="121"/>
     </row>
     <row r="14" s="40" customFormat="1" ht="92.4" spans="1:11">
@@ -8570,8 +8635,8 @@
       </c>
       <c r="G14" s="123"/>
       <c r="H14" s="91"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="129"/>
       <c r="K14" s="121"/>
     </row>
     <row r="15" s="40" customFormat="1" ht="92.4" spans="1:9">
@@ -8588,9 +8653,9 @@
       <c r="F15" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="125"/>
+      <c r="G15" s="140"/>
       <c r="H15" s="120"/>
-      <c r="I15" s="129"/>
+      <c r="I15" s="128"/>
     </row>
     <row r="16" s="40" customFormat="1" ht="118.8" spans="1:9">
       <c r="A16" s="88" t="s">
@@ -8606,9 +8671,9 @@
       <c r="F16" s="236" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="126"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="120"/>
-      <c r="I16" s="129"/>
+      <c r="I16" s="128"/>
     </row>
     <row r="17" s="40" customFormat="1" ht="105.6" spans="1:9">
       <c r="A17" s="88" t="s">
@@ -8624,9 +8689,9 @@
       <c r="F17" s="236" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="126"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="120"/>
-      <c r="I17" s="129"/>
+      <c r="I17" s="128"/>
     </row>
     <row r="18" s="40" customFormat="1" ht="105.6" spans="1:9">
       <c r="A18" s="88" t="s">
@@ -8642,9 +8707,9 @@
       <c r="F18" s="236" t="s">
         <v>203</v>
       </c>
-      <c r="G18" s="126"/>
+      <c r="G18" s="125"/>
       <c r="H18" s="120"/>
-      <c r="I18" s="129"/>
+      <c r="I18" s="128"/>
     </row>
     <row r="19" s="40" customFormat="1" ht="105.6" spans="1:9">
       <c r="A19" s="88" t="s">
@@ -8660,9 +8725,9 @@
       <c r="F19" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="126"/>
+      <c r="G19" s="125"/>
       <c r="H19" s="120"/>
-      <c r="I19" s="129"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" s="40" customFormat="1" ht="105.6" spans="1:9">
       <c r="A20" s="88" t="s">
@@ -8678,9 +8743,9 @@
       <c r="F20" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="126"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="120"/>
-      <c r="I20" s="129"/>
+      <c r="I20" s="128"/>
     </row>
     <row r="21" s="40" customFormat="1" ht="66" spans="1:9">
       <c r="A21" s="88" t="s">
@@ -8696,9 +8761,9 @@
       <c r="F21" s="236" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="126"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="120"/>
-      <c r="I21" s="129"/>
+      <c r="I21" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8825,7 +8890,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -8863,7 +8928,7 @@
       <c r="B7" s="68"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="133"/>
+      <c r="E7" s="132"/>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
@@ -8919,10 +8984,10 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="137"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="107"/>
     </row>
-    <row r="10" s="132" customFormat="1" ht="52.8" spans="1:11">
+    <row r="10" s="131" customFormat="1" ht="52.8" spans="1:11">
       <c r="A10" s="88" t="s">
         <v>215</v>
       </c>
@@ -8939,8 +9004,8 @@
       </c>
       <c r="G10" s="123"/>
       <c r="H10" s="87"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="39.75" customHeight="1" spans="1:11">
@@ -8960,8 +9025,8 @@
       </c>
       <c r="G11" s="123"/>
       <c r="H11" s="91"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="121"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="39.6" spans="1:9">
@@ -8969,7 +9034,7 @@
         <v>222</v>
       </c>
       <c r="B12" s="92"/>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="139" t="s">
         <v>223</v>
       </c>
       <c r="D12" s="235" t="s">
@@ -8981,13 +9046,13 @@
       </c>
       <c r="G12" s="124"/>
       <c r="H12" s="118"/>
-      <c r="I12" s="131"/>
+      <c r="I12" s="130"/>
     </row>
     <row r="13" s="40" customFormat="1" ht="39.6" spans="1:9">
       <c r="A13" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="139" t="s">
         <v>227</v>
       </c>
       <c r="D13" s="235" t="s">
@@ -8997,11 +9062,11 @@
       <c r="F13" s="234" t="s">
         <v>229</v>
       </c>
-      <c r="G13" s="125"/>
+      <c r="G13" s="140"/>
       <c r="H13" s="120"/>
-      <c r="I13" s="129"/>
-    </row>
-    <row r="14" s="132" customFormat="1" ht="39.6" spans="1:9">
+      <c r="I13" s="128"/>
+    </row>
+    <row r="14" s="131" customFormat="1" ht="39.6" spans="1:9">
       <c r="A14" s="88" t="s">
         <v>230</v>
       </c>
@@ -9015,11 +9080,11 @@
       <c r="F14" s="234" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="126"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="120"/>
-      <c r="I14" s="129"/>
-    </row>
-    <row r="15" s="132" customFormat="1" ht="39.6" spans="1:9">
+      <c r="I14" s="128"/>
+    </row>
+    <row r="15" s="131" customFormat="1" ht="39.6" spans="1:9">
       <c r="A15" s="88" t="s">
         <v>234</v>
       </c>
@@ -9033,11 +9098,11 @@
       <c r="F15" s="236" t="s">
         <v>237</v>
       </c>
-      <c r="G15" s="126"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="120"/>
-      <c r="I15" s="129"/>
-    </row>
-    <row r="16" s="132" customFormat="1" ht="39.6" spans="1:9">
+      <c r="I15" s="128"/>
+    </row>
+    <row r="16" s="131" customFormat="1" ht="39.6" spans="1:9">
       <c r="A16" s="88" t="s">
         <v>238</v>
       </c>
@@ -9051,9 +9116,9 @@
       <c r="F16" s="236" t="s">
         <v>241</v>
       </c>
-      <c r="G16" s="126"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="120"/>
-      <c r="I16" s="129"/>
+      <c r="I16" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9180,7 +9245,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -9218,7 +9283,7 @@
       <c r="B7" s="68"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
-      <c r="E7" s="133"/>
+      <c r="E7" s="132"/>
       <c r="F7" s="72"/>
       <c r="G7" s="73"/>
       <c r="H7" s="74"/>
@@ -9274,11 +9339,11 @@
       <c r="I9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="137"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="107"/>
     </row>
     <row r="10" s="123" customFormat="1" ht="79.2" spans="1:11">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="133" t="s">
         <v>243</v>
       </c>
       <c r="B10" s="82"/>
@@ -9293,12 +9358,12 @@
         <v>245</v>
       </c>
       <c r="H10" s="87"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="110"/>
     </row>
     <row r="11" s="111" customFormat="1" ht="66" spans="1:11">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="133" t="s">
         <v>246</v>
       </c>
       <c r="B11" s="88"/>
@@ -9314,12 +9379,12 @@
       </c>
       <c r="G11" s="123"/>
       <c r="H11" s="91"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="110"/>
     </row>
     <row r="12" s="112" customFormat="1" ht="132" spans="1:9">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="133" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="92"/>
@@ -9335,10 +9400,10 @@
       </c>
       <c r="G12" s="90"/>
       <c r="H12" s="94"/>
-      <c r="I12" s="138"/>
+      <c r="I12" s="137"/>
     </row>
     <row r="13" s="111" customFormat="1" ht="132" spans="1:9">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="133" t="s">
         <v>252</v>
       </c>
       <c r="C13" s="82" t="s">
@@ -9351,12 +9416,12 @@
       <c r="F13" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="135"/>
+      <c r="G13" s="134"/>
       <c r="H13" s="114"/>
-      <c r="I13" s="127"/>
+      <c r="I13" s="126"/>
     </row>
     <row r="14" s="123" customFormat="1" ht="132" spans="1:9">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="133" t="s">
         <v>255</v>
       </c>
       <c r="C14" s="82" t="s">
@@ -9369,12 +9434,12 @@
       <c r="F14" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="136"/>
+      <c r="G14" s="135"/>
       <c r="H14" s="114"/>
-      <c r="I14" s="127"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" s="123" customFormat="1" ht="132" spans="1:9">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="133" t="s">
         <v>257</v>
       </c>
       <c r="C15" s="82" t="s">
@@ -9387,12 +9452,12 @@
       <c r="F15" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="136"/>
+      <c r="G15" s="135"/>
       <c r="H15" s="114"/>
-      <c r="I15" s="127"/>
+      <c r="I15" s="126"/>
     </row>
     <row r="16" s="123" customFormat="1" ht="132" spans="1:9">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="133" t="s">
         <v>259</v>
       </c>
       <c r="C16" s="82" t="s">
@@ -9405,12 +9470,12 @@
       <c r="F16" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="136"/>
+      <c r="G16" s="135"/>
       <c r="H16" s="114"/>
-      <c r="I16" s="127"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="133" t="s">
         <v>262</v>
       </c>
       <c r="C17" s="82" t="s">
@@ -9423,12 +9488,12 @@
       <c r="F17" s="236" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="136"/>
+      <c r="G17" s="135"/>
       <c r="H17" s="114"/>
-      <c r="I17" s="127"/>
+      <c r="I17" s="126"/>
     </row>
     <row r="18" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="133" t="s">
         <v>264</v>
       </c>
       <c r="C18" s="82" t="s">
@@ -9441,12 +9506,12 @@
       <c r="F18" s="236" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="136"/>
+      <c r="G18" s="135"/>
       <c r="H18" s="114"/>
-      <c r="I18" s="127"/>
+      <c r="I18" s="126"/>
     </row>
     <row r="19" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="133" t="s">
         <v>266</v>
       </c>
       <c r="C19" s="82" t="s">
@@ -9459,12 +9524,12 @@
       <c r="F19" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="136"/>
+      <c r="G19" s="135"/>
       <c r="H19" s="114"/>
-      <c r="I19" s="127"/>
+      <c r="I19" s="126"/>
     </row>
     <row r="20" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="133" t="s">
         <v>268</v>
       </c>
       <c r="C20" s="82" t="s">
@@ -9477,12 +9542,12 @@
       <c r="F20" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="136"/>
+      <c r="G20" s="135"/>
       <c r="H20" s="114"/>
-      <c r="I20" s="127"/>
+      <c r="I20" s="126"/>
     </row>
     <row r="21" s="123" customFormat="1" ht="158.4" spans="1:9">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="133" t="s">
         <v>270</v>
       </c>
       <c r="C21" s="82" t="s">
@@ -9495,12 +9560,12 @@
       <c r="F21" s="236" t="s">
         <v>273</v>
       </c>
-      <c r="G21" s="136"/>
+      <c r="G21" s="135"/>
       <c r="H21" s="114"/>
-      <c r="I21" s="127"/>
+      <c r="I21" s="126"/>
     </row>
     <row r="22" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="133" t="s">
         <v>274</v>
       </c>
       <c r="C22" s="82" t="s">
@@ -9513,12 +9578,12 @@
       <c r="F22" s="236" t="s">
         <v>277</v>
       </c>
-      <c r="G22" s="136"/>
+      <c r="G22" s="135"/>
       <c r="H22" s="114"/>
-      <c r="I22" s="127"/>
+      <c r="I22" s="126"/>
     </row>
     <row r="23" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="133" t="s">
         <v>278</v>
       </c>
       <c r="C23" s="82" t="s">
@@ -9531,12 +9596,12 @@
       <c r="F23" s="236" t="s">
         <v>281</v>
       </c>
-      <c r="G23" s="136"/>
+      <c r="G23" s="135"/>
       <c r="H23" s="114"/>
-      <c r="I23" s="127"/>
-    </row>
-    <row r="24" s="132" customFormat="1" ht="99.75" customHeight="1" spans="1:6">
-      <c r="A24" s="134" t="s">
+      <c r="I23" s="126"/>
+    </row>
+    <row r="24" s="131" customFormat="1" ht="99.75" customHeight="1" spans="1:6">
+      <c r="A24" s="133" t="s">
         <v>282</v>
       </c>
       <c r="C24" s="82" t="s">
@@ -9674,7 +9739,7 @@
       <c r="I5" s="100"/>
       <c r="K5" s="101">
         <f ca="1">NOW()</f>
-        <v>43995.5262268518</v>
+        <v>43998.397025463</v>
       </c>
       <c r="L5" s="102"/>
       <c r="O5" s="42" t="s">
@@ -9788,8 +9853,8 @@
       </c>
       <c r="G10" s="123"/>
       <c r="H10" s="87"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="121"/>
     </row>
     <row r="11" s="40" customFormat="1" ht="87.95" customHeight="1" spans="1:11">
@@ -9809,8 +9874,8 @@
       </c>
       <c r="G11" s="123"/>
       <c r="H11" s="91"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="121"/>
     </row>
     <row r="12" s="41" customFormat="1" ht="117" customHeight="1" spans="1:9">
@@ -9830,7 +9895,7 @@
       </c>
       <c r="G12" s="124"/>
       <c r="H12" s="118"/>
-      <c r="I12" s="131"/>
+      <c r="I12" s="130"/>
     </row>
     <row r="13" s="41" customFormat="1" ht="90.95" customHeight="1" spans="1:9">
       <c r="A13" s="88" t="s">
@@ -9849,7 +9914,7 @@
       </c>
       <c r="G13" s="124"/>
       <c r="H13" s="118"/>
-      <c r="I13" s="131"/>
+      <c r="I13" s="130"/>
     </row>
     <row r="14" s="40" customFormat="1" ht="69.95" customHeight="1" spans="1:9">
       <c r="A14" s="88" t="s">
@@ -9865,9 +9930,9 @@
       <c r="F14" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="126"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="120"/>
-      <c r="I14" s="129"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" s="40" customFormat="1" ht="98.1" customHeight="1" spans="1:9">
       <c r="A15" s="88" t="s">
@@ -9883,9 +9948,9 @@
       <c r="F15" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="126"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="120"/>
-      <c r="I15" s="129"/>
+      <c r="I15" s="128"/>
     </row>
     <row r="16" s="40" customFormat="1" ht="80.1" customHeight="1" spans="1:9">
       <c r="A16" s="88" t="s">
@@ -9901,9 +9966,9 @@
       <c r="F16" s="90" t="s">
         <v>312</v>
       </c>
-      <c r="G16" s="126"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="120"/>
-      <c r="I16" s="129"/>
+      <c r="I16" s="128"/>
     </row>
     <row r="17" s="40" customFormat="1" ht="93" customHeight="1" spans="1:9">
       <c r="A17" s="88" t="s">
@@ -9919,9 +9984,9 @@
       <c r="F17" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="G17" s="126"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="120"/>
-      <c r="I17" s="129"/>
+      <c r="I17" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Tester/Template_TestReport.loan.xlsx
+++ b/Tester/Template_TestReport.loan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPL\Ki_6\QLDA\GitHub\NHOM-5-PT14351-MOB-Agile-MOB104\Tester\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8892" tabRatio="803" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8895" tabRatio="803" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover (Tổng quan)" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
   <externalReferences>
     <externalReference r:id="rId16"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -36,7 +41,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +115,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +143,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +171,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +199,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +227,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +255,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +283,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +311,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +339,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="433">
   <si>
     <t>TRƯỜNG HỢP KIỂM THỬ</t>
   </si>
@@ -2103,20 +2108,37 @@
   <si>
     <t>Test successful coverage</t>
   </si>
+  <si>
+    <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>nam123</t>
+  </si>
+  <si>
+    <t>0359806230
+nam123</t>
+  </si>
+  <si>
+    <t>0359806232
+nam123</t>
+  </si>
+  <si>
+    <t>0359806230</t>
+  </si>
+  <si>
+    <t>0359806230
+nam122</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2347,144 +2369,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2506,8 +2392,15 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2570,198 +2463,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="55">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3367,271 +3074,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="39" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="19" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3646,17 +3108,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3735,50 +3191,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3786,67 +3218,55 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3855,79 +3275,67 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3936,29 +3344,29 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3971,25 +3379,25 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4001,28 +3409,25 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4063,22 +3468,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4103,13 +3493,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -4137,10 +3520,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4150,9 +3533,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4180,34 +3560,16 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4216,7 +3578,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4225,7 +3587,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4252,113 +3614,194 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="9">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9"/>
-    <cellStyle name="Normal_Template_ESTestPro_Test Case" xfId="14"/>
-    <cellStyle name="40% - Accent3" xfId="15" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="16" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
-    <cellStyle name="Title" xfId="18" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="19" builtinId="53"/>
-    <cellStyle name="Normal_Sheet1 3" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Input" xfId="24" builtinId="20"/>
-    <cellStyle name="Normal 4" xfId="25"/>
-    <cellStyle name="60% - Accent3" xfId="26" builtinId="40"/>
-    <cellStyle name="Good" xfId="27" builtinId="26"/>
-    <cellStyle name="Output" xfId="28" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="29" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="30" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="31" builtinId="24"/>
-    <cellStyle name="Total" xfId="32" builtinId="25"/>
-    <cellStyle name="Bad" xfId="33" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="34" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="37" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="38" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="39" builtinId="34"/>
-    <cellStyle name="Normal 3" xfId="40"/>
-    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="42" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="43" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="44" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="45" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="47" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="48" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="49" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="50" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="51" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="52" builtinId="51"/>
-    <cellStyle name="Normal_Sheet1 2" xfId="53"/>
-    <cellStyle name="60% - Accent6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal_Functional Test Case v1.0" xfId="55"/>
+    <cellStyle name="Normal 3" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="2"/>
+    <cellStyle name="Normal_Functional Test Case v1.0" xfId="8"/>
+    <cellStyle name="Normal_Sheet1 2" xfId="7"/>
+    <cellStyle name="Normal_Sheet1 3" xfId="4"/>
+    <cellStyle name="Normal_Template_ESTestPro_Test Case" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4378,7 +3821,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4405,7 +3848,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4425,7 +3868,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4452,7 +3895,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4472,7 +3915,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4499,7 +3942,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -4521,7 +3964,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4572,7 +4015,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -4892,694 +4335,692 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.57407407407407" style="198" customWidth="1"/>
-    <col min="2" max="2" width="22.4259259259259" style="199" customWidth="1"/>
-    <col min="3" max="3" width="10.5740740740741" style="198" customWidth="1"/>
-    <col min="4" max="4" width="16.5740740740741" style="198" customWidth="1"/>
-    <col min="5" max="5" width="9.13888888888889" style="198" customWidth="1"/>
-    <col min="6" max="6" width="35.5740740740741" style="198" customWidth="1"/>
-    <col min="7" max="7" width="46.5740740740741" style="198" customWidth="1"/>
-    <col min="8" max="16384" width="10.287037037037" style="198"/>
+    <col min="1" max="1" width="2.5703125" style="168" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="169" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="168" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="168" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="168" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="168" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="168" customWidth="1"/>
+    <col min="8" max="16384" width="10.28515625" style="168"/>
   </cols>
   <sheetData>
-    <row r="2" s="195" customFormat="1" ht="31.8" spans="1:9">
-      <c r="A2" s="200"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="202" t="s">
+    <row r="2" spans="1:9" s="165" customFormat="1" ht="32.25">
+      <c r="A2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="I2" s="195" t="s">
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="I2" s="165" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
+    <row r="3" spans="1:9">
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:9">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="206"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="209"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:9">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:9">
+      <c r="B6" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="210" t="s">
+      <c r="G6" s="174" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="8" t="s">
+    <row r="7" spans="1:9">
+      <c r="B7" s="216"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="211" t="s">
+      <c r="G7" s="175" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="16"/>
-      <c r="C8" s="212"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="204"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="213" t="s">
+    <row r="8" spans="1:9">
+      <c r="B8" s="12"/>
+      <c r="C8" s="176"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="198" t="s">
+      <c r="C10" s="168" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" s="196" customFormat="1" spans="2:8">
-      <c r="B11" s="214" t="s">
+    <row r="11" spans="1:9" s="166" customFormat="1">
+      <c r="B11" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="215" t="s">
+      <c r="D11" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="215" t="s">
+      <c r="E11" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="215" t="s">
+      <c r="F11" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="216" t="s">
+      <c r="G11" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="195"/>
-    </row>
-    <row r="12" s="197" customFormat="1" spans="2:8">
-      <c r="B12" s="217">
+      <c r="H11" s="165"/>
+    </row>
+    <row r="12" spans="1:9" s="167" customFormat="1">
+      <c r="B12" s="181">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="C12" s="218" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="C12" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="197" t="s">
+      <c r="E12" s="183"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="167" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" s="197" customFormat="1" spans="2:8">
-      <c r="B13" s="217" t="s">
+    <row r="13" spans="1:9" s="167" customFormat="1">
+      <c r="B13" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="218" t="s">
+      <c r="C13" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="219" t="s">
+      <c r="D13" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="219" t="s">
+      <c r="E13" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="219" t="s">
+      <c r="F13" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="230" t="s">
+      <c r="G13" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="197" t="s">
+      <c r="H13" s="167" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" s="197" customFormat="1" spans="2:7">
-      <c r="B14" s="217"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219" t="s">
+    <row r="14" spans="1:9" s="167" customFormat="1">
+      <c r="B14" s="181"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="221"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="198" t="s">
+      <c r="F14" s="183"/>
+      <c r="G14" s="185"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" s="168" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="222" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="198">
+      <c r="C17" s="168">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="222" t="s">
+    <row r="18" spans="2:6">
+      <c r="D18" s="186" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="223" t="s">
+      <c r="B19" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="224" t="s">
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="188" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="225">
+      <c r="B20" s="189">
         <v>1</v>
       </c>
-      <c r="C20" s="226"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="229" t="s">
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="193" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="225">
+      <c r="B21" s="189">
         <v>2</v>
       </c>
-      <c r="C21" s="226"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="229" t="s">
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="193" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="225">
+      <c r="B22" s="189">
         <v>3</v>
       </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="229" t="s">
+      <c r="C22" s="190"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="193" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="225">
+      <c r="B23" s="189">
         <v>4</v>
       </c>
-      <c r="C23" s="226"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="229" t="s">
+      <c r="C23" s="190"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="193" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="225">
+      <c r="B24" s="189">
         <v>5</v>
       </c>
-      <c r="C24" s="226"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="229"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="193"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="225">
+      <c r="B25" s="189">
         <v>6</v>
       </c>
-      <c r="C25" s="226"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="229"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:E7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView topLeftCell="E6" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.1388888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="41.8518518518519" style="42" customWidth="1"/>
-    <col min="4" max="4" width="45.5740740740741" style="42" customWidth="1"/>
-    <col min="5" max="5" width="18.712962962963" style="42" customWidth="1"/>
-    <col min="6" max="6" width="46.287037037037" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="19.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="13.95" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I971,"Pass")</f>
         <v>7</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="50">
         <f>COUNTIF(I12:I971,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
         <v>-2</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$12:I$971,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A12:A971)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="52.8" spans="1:11">
-      <c r="A10" s="88" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="36" customFormat="1" ht="51">
+      <c r="A10" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="E10" s="122"/>
-      <c r="F10" s="237" t="s">
+      <c r="E10" s="102"/>
+      <c r="F10" s="201" t="s">
         <v>320</v>
       </c>
-      <c r="G10" s="237" t="s">
+      <c r="G10" s="201" t="s">
         <v>320</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="108" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="239" t="s">
+      <c r="J10" s="203" t="s">
         <v>321</v>
       </c>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A11" s="88" t="s">
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A11" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="108" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="239" t="s">
+      <c r="J11" s="203" t="s">
         <v>321</v>
       </c>
-      <c r="K11" s="121"/>
-    </row>
-    <row r="12" s="41" customFormat="1" ht="66" spans="1:10">
-      <c r="A12" s="88" t="s">
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="1:15" s="37" customFormat="1" ht="63.75">
+      <c r="A12" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="90" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="108" t="s">
+      <c r="H12" s="98"/>
+      <c r="I12" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="239" t="s">
+      <c r="J12" s="203" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="13" s="40" customFormat="1" ht="52.8" spans="1:10">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="1:15" s="36" customFormat="1" ht="51">
+      <c r="A13" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="90" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="108" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="239" t="s">
+      <c r="J13" s="203" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" ht="92.4" spans="1:10">
-      <c r="A14" s="88" t="s">
+    <row r="14" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A14" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="235" t="s">
+      <c r="D14" s="199" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="90" t="s">
+      <c r="E14" s="99"/>
+      <c r="F14" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="108" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="239" t="s">
+      <c r="J14" s="203" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" ht="92.4" spans="1:10">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A15" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="234" t="s">
+      <c r="E15" s="99"/>
+      <c r="F15" s="198" t="s">
         <v>340</v>
       </c>
-      <c r="G15" s="234" t="s">
+      <c r="G15" s="198" t="s">
         <v>340</v>
       </c>
-      <c r="H15" s="120"/>
-      <c r="I15" s="108" t="s">
+      <c r="H15" s="100"/>
+      <c r="I15" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="239" t="s">
+      <c r="J15" s="203" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" ht="79.2" spans="1:10">
-      <c r="A16" s="88" t="s">
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="76.5">
+      <c r="A16" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="95" t="s">
         <v>342</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="90" t="s">
+      <c r="E16" s="99"/>
+      <c r="F16" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="108" t="s">
+      <c r="H16" s="100"/>
+      <c r="I16" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="203" t="s">
         <v>321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10 I11 I12 I13 I14 I15 I16">
@@ -5587,401 +5028,399 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.1388888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="41.8518518518519" style="42" customWidth="1"/>
-    <col min="4" max="4" width="45.5740740740741" style="42" customWidth="1"/>
-    <col min="5" max="5" width="18.712962962963" style="42" customWidth="1"/>
-    <col min="6" max="6" width="46.287037037037" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="19.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="13.95" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I971,"Pass")</f>
         <v>7</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="50">
         <f>COUNTIF(I12:I971,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
         <v>-2</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$12:I$971,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A12:A971)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A10" s="88" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="36" customFormat="1" ht="114.75">
+      <c r="A10" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="235" t="s">
+      <c r="D10" s="199" t="s">
         <v>345</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="237" t="s">
+      <c r="E10" s="96"/>
+      <c r="F10" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="237" t="s">
+      <c r="G10" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="108" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="239" t="s">
+      <c r="J10" s="203" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" s="40" customFormat="1" ht="77" customHeight="1" spans="1:11">
-      <c r="A11" s="88" t="s">
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="77.099999999999994" customHeight="1">
+      <c r="A11" s="72" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="199" t="s">
         <v>348</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="234" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="G11" s="234" t="s">
+      <c r="G11" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="108" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="239" t="s">
+      <c r="J11" s="203" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="121"/>
-    </row>
-    <row r="12" s="41" customFormat="1" ht="77" customHeight="1" spans="1:10">
-      <c r="A12" s="88" t="s">
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="1:15" s="37" customFormat="1" ht="77.099999999999994" customHeight="1">
+      <c r="A12" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="88" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="D12" s="199" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="90" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="108" t="s">
+      <c r="H12" s="98"/>
+      <c r="I12" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="239" t="s">
+      <c r="J12" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="13" s="40" customFormat="1" ht="91" customHeight="1" spans="1:10">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="1:15" s="36" customFormat="1" ht="90.95" customHeight="1">
+      <c r="A13" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="95" t="s">
         <v>353</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="90" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="108" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="239" t="s">
+      <c r="J13" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" ht="85" customHeight="1" spans="1:10">
-      <c r="A14" s="88" t="s">
+    <row r="14" spans="1:15" s="36" customFormat="1" ht="84.95" customHeight="1">
+      <c r="A14" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="235" t="s">
+      <c r="D14" s="199" t="s">
         <v>355</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="90" t="s">
+      <c r="E14" s="99"/>
+      <c r="F14" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="108" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="239" t="s">
+      <c r="J14" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" ht="84" customHeight="1" spans="1:10">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:15" s="36" customFormat="1" ht="84" customHeight="1">
+      <c r="A15" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="199" t="s">
         <v>357</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="234" t="s">
+      <c r="E15" s="99"/>
+      <c r="F15" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="234" t="s">
+      <c r="G15" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="120"/>
-      <c r="I15" s="108" t="s">
+      <c r="H15" s="100"/>
+      <c r="I15" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="239" t="s">
+      <c r="J15" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" ht="93" customHeight="1" spans="1:10">
-      <c r="A16" s="88" t="s">
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="93" customHeight="1">
+      <c r="A16" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="D16" s="235" t="s">
+      <c r="D16" s="199" t="s">
         <v>359</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="90" t="s">
+      <c r="E16" s="99"/>
+      <c r="F16" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="108" t="s">
+      <c r="H16" s="100"/>
+      <c r="I16" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="203" t="s">
         <v>346</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10 I11 I12 I13 I14 I15 I16">
@@ -5989,484 +5428,482 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView topLeftCell="E15" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.1388888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="41.8518518518519" style="42" customWidth="1"/>
-    <col min="4" max="4" width="45.5740740740741" style="42" customWidth="1"/>
-    <col min="5" max="5" width="18.712962962963" style="42" customWidth="1"/>
-    <col min="6" max="6" width="46.287037037037" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="19.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="13.95" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I972,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="50">
         <f>COUNTIF(I12:I972,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
         <v>-2</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$12:I$972,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A12:A972)</f>
         <v>8</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="111" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A10" s="81" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="91" customFormat="1" ht="89.25">
+      <c r="A10" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="240" t="s">
+      <c r="D10" s="204" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="237" t="s">
+      <c r="E10" s="69"/>
+      <c r="F10" s="201" t="s">
         <v>363</v>
       </c>
-      <c r="G10" s="237" t="s">
+      <c r="G10" s="201" t="s">
         <v>363</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="108" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="239" t="s">
+      <c r="J10" s="203" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="110"/>
-    </row>
-    <row r="11" s="111" customFormat="1" ht="145.2" spans="1:11">
-      <c r="A11" s="81" t="s">
+      <c r="K10" s="90"/>
+    </row>
+    <row r="11" spans="1:15" s="91" customFormat="1" ht="140.25">
+      <c r="A11" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="83" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="67" t="s">
         <v>365</v>
       </c>
-      <c r="D11" s="240" t="s">
+      <c r="D11" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="74" t="s">
         <v>367</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="74" t="s">
         <v>367</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="108" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="239" t="s">
+      <c r="J11" s="203" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="110"/>
-    </row>
-    <row r="12" s="112" customFormat="1" ht="132" spans="1:10">
-      <c r="A12" s="81" t="s">
+      <c r="K11" s="90"/>
+    </row>
+    <row r="12" spans="1:15" s="92" customFormat="1" ht="127.5">
+      <c r="A12" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="83" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="D12" s="240" t="s">
+      <c r="D12" s="204" t="s">
         <v>370</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="90" t="s">
+      <c r="E12" s="77"/>
+      <c r="F12" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="108" t="s">
+      <c r="H12" s="78"/>
+      <c r="I12" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="239" t="s">
+      <c r="J12" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="13" s="111" customFormat="1" ht="132" spans="1:10">
-      <c r="A13" s="81" t="s">
+    <row r="13" spans="1:15" s="91" customFormat="1" ht="127.5">
+      <c r="A13" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="D13" s="240" t="s">
+      <c r="D13" s="204" t="s">
         <v>374</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="234" t="s">
+      <c r="E13" s="93"/>
+      <c r="F13" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="234" t="s">
+      <c r="G13" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="108" t="s">
+      <c r="H13" s="94"/>
+      <c r="I13" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="239" t="s">
+      <c r="J13" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14" s="111" customFormat="1" ht="132" spans="1:10">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:15" s="91" customFormat="1" ht="127.5">
+      <c r="A14" s="65" t="s">
         <v>375</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="D14" s="240" t="s">
+      <c r="D14" s="204" t="s">
         <v>377</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="234" t="s">
+      <c r="E14" s="93"/>
+      <c r="F14" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="234" t="s">
+      <c r="G14" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="108" t="s">
+      <c r="H14" s="94"/>
+      <c r="I14" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="239" t="s">
+      <c r="J14" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="15" s="111" customFormat="1" ht="132" spans="1:10">
-      <c r="A15" s="81" t="s">
+    <row r="15" spans="1:15" s="91" customFormat="1" ht="127.5">
+      <c r="A15" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="240" t="s">
+      <c r="D15" s="204" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="113"/>
-      <c r="F15" s="234" t="s">
+      <c r="E15" s="93"/>
+      <c r="F15" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="234" t="s">
+      <c r="G15" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H15" s="94" t="s">
         <v>380</v>
       </c>
-      <c r="I15" s="108" t="s">
+      <c r="I15" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="239" t="s">
+      <c r="J15" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="16" s="111" customFormat="1" ht="132" spans="1:10">
-      <c r="A16" s="81" t="s">
+    <row r="16" spans="1:15" s="91" customFormat="1" ht="127.5">
+      <c r="A16" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="D16" s="240" t="s">
+      <c r="D16" s="204" t="s">
         <v>383</v>
       </c>
-      <c r="E16" s="113"/>
-      <c r="F16" s="234" t="s">
+      <c r="E16" s="93"/>
+      <c r="F16" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="234" t="s">
+      <c r="G16" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="114" t="s">
+      <c r="H16" s="94" t="s">
         <v>380</v>
       </c>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="17" s="111" customFormat="1" ht="145.2" spans="1:10">
-      <c r="A17" s="81" t="s">
+    <row r="17" spans="1:10" s="91" customFormat="1" ht="140.25">
+      <c r="A17" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="240" t="s">
+      <c r="D17" s="204" t="s">
         <v>385</v>
       </c>
-      <c r="E17" s="113"/>
-      <c r="F17" s="234" t="s">
+      <c r="E17" s="93"/>
+      <c r="F17" s="198" t="s">
         <v>386</v>
       </c>
-      <c r="G17" s="234" t="s">
+      <c r="G17" s="198" t="s">
         <v>386</v>
       </c>
-      <c r="H17" s="114" t="s">
+      <c r="H17" s="94" t="s">
         <v>380</v>
       </c>
-      <c r="I17" s="108" t="s">
+      <c r="I17" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="239" t="s">
+      <c r="J17" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" s="111" customFormat="1" ht="172" customHeight="1" spans="1:10">
-      <c r="A18" s="81" t="s">
+    <row r="18" spans="1:10" s="91" customFormat="1" ht="171.95" customHeight="1">
+      <c r="A18" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="D18" s="240" t="s">
+      <c r="D18" s="204" t="s">
         <v>389</v>
       </c>
-      <c r="F18" s="241" t="s">
+      <c r="F18" s="205" t="s">
         <v>390</v>
       </c>
-      <c r="G18" s="241" t="s">
+      <c r="G18" s="205" t="s">
         <v>390</v>
       </c>
-      <c r="H18" s="111" t="s">
+      <c r="H18" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="I18" s="108" t="s">
+      <c r="I18" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="239" t="s">
+      <c r="J18" s="203" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="19" s="111" customFormat="1" ht="111" customHeight="1" spans="1:10">
-      <c r="A19" s="81" t="s">
+    <row r="19" spans="1:10" s="91" customFormat="1" ht="111" customHeight="1">
+      <c r="A19" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="67" t="s">
         <v>392</v>
       </c>
-      <c r="D19" s="240" t="s">
+      <c r="D19" s="204" t="s">
         <v>393</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="92" t="s">
         <v>394</v>
       </c>
-      <c r="G19" s="112" t="s">
+      <c r="G19" s="92" t="s">
         <v>394</v>
       </c>
-      <c r="H19" s="111" t="s">
+      <c r="H19" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="I19" s="108" t="s">
+      <c r="I19" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="239" t="s">
+      <c r="J19" s="203" t="s">
         <v>346</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19">
@@ -6474,314 +5911,312 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.1388888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="41.8518518518519" style="42" customWidth="1"/>
-    <col min="4" max="4" width="45.5740740740741" style="42" customWidth="1"/>
-    <col min="5" max="5" width="18.712962962963" style="42" customWidth="1"/>
-    <col min="6" max="6" width="46.287037037037" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="19.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="13.95" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I967,"Pass")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="50">
         <f>COUNTIF(I12:I967,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
         <v>-2</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$12:I$967,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A12:A967)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="79.2" spans="1:15">
-      <c r="A10" s="81" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="36" customFormat="1" ht="76.5">
+      <c r="A10" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="240" t="s">
+      <c r="D10" s="204" t="s">
         <v>397</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="237" t="s">
+      <c r="E10" s="69"/>
+      <c r="F10" s="201" t="s">
         <v>398</v>
       </c>
-      <c r="G10" s="237" t="s">
+      <c r="G10" s="201" t="s">
         <v>398</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="108" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="239" t="s">
+      <c r="J10" s="203" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-    </row>
-    <row r="11" s="40" customFormat="1" ht="92.4" spans="1:15">
-      <c r="A11" s="81" t="s">
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A11" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72" t="s">
         <v>400</v>
       </c>
-      <c r="D11" s="240" t="s">
+      <c r="D11" s="204" t="s">
         <v>401</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="108" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="239" t="s">
+      <c r="J11" s="203" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-    </row>
-    <row r="12" s="41" customFormat="1" ht="79.2" spans="1:15">
-      <c r="A12" s="81" t="s">
+      <c r="K11" s="90"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+    </row>
+    <row r="12" spans="1:15" s="37" customFormat="1" ht="76.5">
+      <c r="A12" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="88" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="D12" s="240" t="s">
+      <c r="D12" s="204" t="s">
         <v>397</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="90" t="s">
+      <c r="E12" s="77"/>
+      <c r="F12" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="108" t="s">
+      <c r="H12" s="78"/>
+      <c r="I12" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="239" t="s">
+      <c r="J12" s="203" t="s">
         <v>346</v>
       </c>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10 I11 I12">
@@ -6789,206 +6224,202 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.287037037037" style="1"/>
-    <col min="2" max="2" width="15.4259259259259" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1388888888889" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.287037037037" style="1"/>
-    <col min="8" max="8" width="46.5740740740741" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.8518518518519" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.287037037037" style="1"/>
+    <col min="1" max="1" width="10.28515625" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.28515625" style="1"/>
+    <col min="8" max="8" width="46.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.6" spans="2:8">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" ht="25.5">
+      <c r="B1" s="245" t="s">
         <v>406</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="6" t="s">
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="219" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="219"/>
+      <c r="E3" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="246"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:9">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="219" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="219"/>
+      <c r="E4" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="12" t="s">
+      <c r="F4" s="246"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="219" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>KH_HUE_T07_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="219"/>
+      <c r="E5" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="13">
+      <c r="F5" s="246"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="11">
         <v>42666</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="2"/>
+      <c r="B6" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="247" t="s">
         <v>411</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="242" t="s">
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="248"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="206" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="19" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="18"/>
-      <c r="B11" s="24">
+      <c r="A11" s="14"/>
+      <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="25" t="str">
+      <c r="C11" s="21" t="str">
         <f>'[1]1.Login-logout'!B2</f>
         <v>Login_logout</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <f>'[1]1.Login-logout'!A6</f>
         <v>0</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="22">
         <f>'[1]1.Login-logout'!B6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="22">
         <f>'[1]1.Login-logout'!C6</f>
         <v>17</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <f>'[1]1.Login-logout'!D6</f>
         <v>0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <f>'[1]1.Login-logout'!E6</f>
         <v>17</v>
       </c>
@@ -6997,31 +6428,31 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18"/>
-      <c r="B12" s="24">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20">
         <v>2</v>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="21" t="str">
         <f t="shared" ref="C12:C17" si="0">I12&amp;"'!B2"</f>
         <v>2.organisation'!B2</v>
       </c>
-      <c r="D12" s="26" t="e">
+      <c r="D12" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="26" t="e">
+      <c r="E12" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F12" s="26" t="e">
+      <c r="F12" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G12" s="27" t="e">
+      <c r="G12" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="28" t="e">
+      <c r="H12" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7030,31 +6461,31 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="24">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20">
         <v>3</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>3.service'!B2</v>
       </c>
-      <c r="D13" s="26" t="e">
+      <c r="D13" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="26" t="e">
+      <c r="E13" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="26" t="e">
+      <c r="F13" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G13" s="27" t="e">
+      <c r="G13" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H13" s="28" t="e">
+      <c r="H13" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7063,31 +6494,31 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="18"/>
-      <c r="B14" s="24">
+      <c r="A14" s="14"/>
+      <c r="B14" s="20">
         <v>4</v>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4.programe'!B2</v>
       </c>
-      <c r="D14" s="26" t="e">
+      <c r="D14" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="26" t="e">
+      <c r="E14" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F14" s="26" t="e">
+      <c r="F14" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G14" s="27" t="e">
+      <c r="G14" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H14" s="28" t="e">
+      <c r="H14" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7096,31 +6527,31 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="24">
+      <c r="A15" s="14"/>
+      <c r="B15" s="20">
         <v>5</v>
       </c>
-      <c r="C15" s="25" t="str">
+      <c r="C15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5. premise'!B2</v>
       </c>
-      <c r="D15" s="26" t="e">
+      <c r="D15" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="26" t="e">
+      <c r="E15" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F15" s="26" t="e">
+      <c r="F15" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G15" s="27" t="e">
+      <c r="G15" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H15" s="28" t="e">
+      <c r="H15" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7129,31 +6560,31 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18"/>
-      <c r="B16" s="24">
+      <c r="A16" s="14"/>
+      <c r="B16" s="20">
         <v>6</v>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="C16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>6.Geography'!B2</v>
       </c>
-      <c r="D16" s="26" t="e">
+      <c r="D16" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E16" s="26" t="e">
+      <c r="E16" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F16" s="26" t="e">
+      <c r="F16" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="27" t="e">
+      <c r="G16" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="28" t="e">
+      <c r="H16" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7162,31 +6593,31 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18"/>
-      <c r="B17" s="24">
+      <c r="A17" s="14"/>
+      <c r="B17" s="20">
         <v>7</v>
       </c>
-      <c r="C17" s="25" t="str">
+      <c r="C17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>7.Search'!B2</v>
       </c>
-      <c r="D17" s="26" t="e">
+      <c r="D17" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="26" t="e">
+      <c r="E17" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F17" s="26" t="e">
+      <c r="F17" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G17" s="27" t="e">
+      <c r="G17" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H17" s="28" t="e">
+      <c r="H17" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -7194,307 +6625,305 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="24">
+    <row r="18" spans="1:9">
+      <c r="A18" s="14"/>
+      <c r="B18" s="20">
         <v>8</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26" t="e">
+      <c r="C18" s="21"/>
+      <c r="D18" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E18" s="26" t="e">
+      <c r="E18" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F18" s="26" t="e">
+      <c r="F18" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G18" s="27" t="e">
+      <c r="G18" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H18" s="28" t="e">
+      <c r="H18" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="24">
+    <row r="19" spans="1:9">
+      <c r="A19" s="14"/>
+      <c r="B19" s="20">
         <v>9</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26" t="e">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E19" s="26" t="e">
+      <c r="E19" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F19" s="26" t="e">
+      <c r="F19" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G19" s="27" t="e">
+      <c r="G19" s="23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H19" s="28" t="e">
+      <c r="H19" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="14"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="D20" s="31" t="e">
+      <c r="D20" s="27" t="e">
         <f>SUM(D9:D19)</f>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="31" t="e">
+      <c r="E20" s="27" t="e">
         <f>SUM(E9:E19)</f>
         <v>#REF!</v>
       </c>
-      <c r="F20" s="31" t="e">
+      <c r="F20" s="27" t="e">
         <f>SUM(F9:F19)</f>
         <v>#REF!</v>
       </c>
-      <c r="G20" s="31" t="e">
+      <c r="G20" s="27" t="e">
         <f>SUM(G9:G19)</f>
         <v>#REF!</v>
       </c>
-      <c r="H20" s="32" t="e">
+      <c r="H20" s="28" t="e">
         <f>SUM(H9:H19)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="36" t="s">
+    <row r="21" spans="1:9">
+      <c r="B21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="C22" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="E22" s="37" t="e">
+      <c r="E22" s="33" t="e">
         <f>(D20+E20)*100/(H20-G20)</f>
         <v>#REF!</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="36" t="s">
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="C23" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="E23" s="37" t="e">
+      <c r="E23" s="33" t="e">
         <f>D20*100/(H20-G20)</f>
         <v>#REF!</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.57407407407407" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4259259259259" style="169" customWidth="1"/>
-    <col min="3" max="3" width="43.287037037037" style="170" customWidth="1"/>
-    <col min="4" max="4" width="34.8518518518519" style="170" customWidth="1"/>
-    <col min="5" max="5" width="35.712962962963" style="170" customWidth="1"/>
-    <col min="6" max="6" width="42.712962962963" style="170" customWidth="1"/>
-    <col min="7" max="16384" width="10.287037037037" style="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="143" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="144" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="144" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="144" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="144" customWidth="1"/>
+    <col min="7" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.6" spans="2:5">
-      <c r="B1" s="171"/>
-      <c r="D1" s="172" t="s">
+    <row r="1" spans="2:6" ht="25.5">
+      <c r="B1" s="145"/>
+      <c r="D1" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="173"/>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="171"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
+      <c r="E1" s="147"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="145"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="7" t="str">
+      <c r="C3" s="218"/>
+      <c r="D3" s="219" t="str">
         <f>[1]Cover!C4</f>
         <v>HỆ THỐNG SERVICE DIRECTORY</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="7" t="str">
+      <c r="C4" s="218"/>
+      <c r="D4" s="219" t="str">
         <f>[1]Cover!C5</f>
         <v>SD_SOF303</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" s="166" customFormat="1" spans="2:6">
-      <c r="B5" s="176" t="s">
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+    </row>
+    <row r="5" spans="2:6" s="140" customFormat="1">
+      <c r="B5" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="177" t="s">
+      <c r="C5" s="220"/>
+      <c r="D5" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="178"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" s="167" customFormat="1" spans="2:6">
-      <c r="B7" s="179"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-    </row>
-    <row r="8" s="168" customFormat="1" spans="2:6">
-      <c r="B8" s="181" t="s">
+    <row r="7" spans="2:6" s="141" customFormat="1">
+      <c r="B7" s="150"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+    </row>
+    <row r="8" spans="2:6" s="142" customFormat="1">
+      <c r="B8" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="182" t="s">
+      <c r="D8" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="183" t="s">
+      <c r="E8" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="155" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="2:6">
-      <c r="B9" s="185">
+    <row r="9" spans="2:6" ht="15">
+      <c r="B9" s="156">
         <v>1</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="231" t="s">
+      <c r="D9" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
-    </row>
-    <row r="10" ht="14.4" spans="2:6">
-      <c r="B10" s="185">
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+    </row>
+    <row r="10" spans="2:6" ht="15">
+      <c r="B10" s="156">
         <v>2</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="2:6">
-      <c r="B11" s="185">
+    <row r="11" spans="2:6" ht="15">
+      <c r="B11" s="156">
         <v>3</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
-    </row>
-    <row r="12" ht="14.4" spans="2:6">
-      <c r="B12" s="185">
+      <c r="C11" s="157"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+    </row>
+    <row r="12" spans="2:6" ht="15">
+      <c r="B12" s="156">
         <v>4</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-    </row>
-    <row r="13" ht="14.4" spans="2:6">
-      <c r="B13" s="185">
+      <c r="C12" s="157"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+    </row>
+    <row r="13" spans="2:6" ht="15">
+      <c r="B13" s="156">
         <v>5</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="189"/>
-    </row>
-    <row r="14" ht="14.4" spans="2:6">
-      <c r="B14" s="185">
+      <c r="C13" s="157"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="160"/>
+    </row>
+    <row r="14" spans="2:6" ht="15">
+      <c r="B14" s="156">
         <v>6</v>
       </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="189"/>
-    </row>
-    <row r="15" ht="14.4" spans="2:6">
-      <c r="B15" s="185">
+      <c r="C14" s="157"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="160"/>
+    </row>
+    <row r="15" spans="2:6" ht="15">
+      <c r="B15" s="156">
         <v>7</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="232" t="s">
+      <c r="C15" s="162"/>
+      <c r="D15" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="194"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7510,226 +6939,224 @@
     <hyperlink ref="D15" location="'7.Search'!A1" display="7.TimKiem'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" style="148" customWidth="1"/>
-    <col min="2" max="2" width="38.712962962963" style="148" customWidth="1"/>
-    <col min="3" max="3" width="52.5740740740741" style="148" customWidth="1"/>
-    <col min="4" max="16384" width="10.287037037037" style="148"/>
+    <col min="1" max="1" width="21" style="127" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="127" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="127" customWidth="1"/>
+    <col min="4" max="16384" width="10.28515625" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" s="146" customFormat="1" ht="24.6" spans="1:3">
-      <c r="A1" s="149"/>
-      <c r="B1" s="150"/>
-      <c r="C1" s="151" t="s">
+    <row r="1" spans="1:6" s="125" customFormat="1" ht="25.5">
+      <c r="A1" s="128"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="130" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" s="146" customFormat="1" ht="13.2" spans="1:3">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="152"/>
-    </row>
-    <row r="3" s="146" customFormat="1" ht="13.2" spans="1:3">
-      <c r="A3" s="153" t="s">
+    <row r="2" spans="1:6" s="125" customFormat="1" ht="12.75">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="131"/>
+    </row>
+    <row r="3" spans="1:6" s="125" customFormat="1" ht="12.75">
+      <c r="A3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="154" t="str">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133" t="str">
         <f>[1]Cover!C4</f>
         <v>HỆ THỐNG SERVICE DIRECTORY</v>
       </c>
     </row>
-    <row r="4" s="146" customFormat="1" ht="13.2" spans="1:3">
-      <c r="A4" s="153" t="s">
+    <row r="4" spans="1:6" s="125" customFormat="1" ht="12.75">
+      <c r="A4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="154" t="str">
+      <c r="B4" s="132"/>
+      <c r="C4" s="133" t="str">
         <f>[1]Cover!C5</f>
         <v>SD_SOF303</v>
       </c>
     </row>
-    <row r="5" s="147" customFormat="1" ht="13.2" spans="1:3">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="157" t="s">
+    <row r="5" spans="1:6" s="126" customFormat="1" ht="12.75">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="136" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="127" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="159" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="138" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="157"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="159" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="157"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="159" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="136"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="157" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="226" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="139" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="157"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="162" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="222"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="139" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="157"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="159" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="222"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="139" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="157"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="159" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="222"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="139" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="157"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="159" t="s">
+      <c r="A17" s="222"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="139" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="157"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="148" t="s">
+      <c r="A18" s="222"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="162" t="s">
+      <c r="D18" s="139" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="157"/>
-      <c r="B19" s="158" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="222"/>
+      <c r="B19" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="159"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158" t="s">
+      <c r="C19" s="138"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="222"/>
+      <c r="B20" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="159"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="157"/>
-      <c r="B21" s="158" t="s">
+      <c r="C20" s="138"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="222"/>
+      <c r="B21" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="159"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="157"/>
-      <c r="B22" s="158" t="s">
+      <c r="C21" s="138"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="222"/>
+      <c r="B22" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="159"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="157"/>
-      <c r="B23" s="158" t="s">
+      <c r="C22" s="138"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="222"/>
+      <c r="B23" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="159"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="157"/>
-      <c r="B24" s="158" t="s">
+      <c r="C23" s="138"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="222"/>
+      <c r="B24" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="159"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="157"/>
-      <c r="B25" s="158" t="s">
+      <c r="C24" s="138"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="222"/>
+      <c r="B25" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="138" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7740,24 +7167,22 @@
     <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="124" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7766,562 +7191,560 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="1:8">
       <c r="H19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.287037037037" style="42" customWidth="1"/>
-    <col min="2" max="2" width="27.287037037037" style="42" customWidth="1"/>
-    <col min="3" max="4" width="41.4259259259259" style="42" customWidth="1"/>
-    <col min="5" max="5" width="21.712962962963" style="42" customWidth="1"/>
-    <col min="6" max="6" width="45.8518518518519" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="20.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="38" customWidth="1"/>
+    <col min="3" max="4" width="41.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:15">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I978,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="50">
         <f>COUNTIF(I12:I978,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
         <v>15</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$12:I$978,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A12:A978)</f>
         <v>15</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A10" s="88" t="s">
+      <c r="J9" s="116"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A10" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="197" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="86" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" s="40" customFormat="1" ht="105.6" spans="1:11">
-      <c r="A11" s="88" t="s">
+      <c r="G10" s="103"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="102">
+      <c r="A11" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="233" t="s">
+      <c r="D11" s="197" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="234" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="121"/>
-    </row>
-    <row r="12" s="41" customFormat="1" ht="118.8" spans="1:9">
-      <c r="A12" s="92" t="s">
+      <c r="G11" s="103"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="1:15" s="37" customFormat="1" ht="114.75">
+      <c r="A12" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="D12" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="112" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="130"/>
-    </row>
-    <row r="13" s="40" customFormat="1" ht="52.8" spans="1:9">
-      <c r="A13" s="88" t="s">
+      <c r="G12" s="104"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="110"/>
+    </row>
+    <row r="13" spans="1:15" s="36" customFormat="1" ht="51">
+      <c r="A13" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="233" t="s">
+      <c r="D13" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="236" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="140"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="128"/>
-    </row>
-    <row r="14" s="40" customFormat="1" ht="92.4" spans="1:9">
-      <c r="A14" s="92" t="s">
+      <c r="G13" s="119"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A14" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="236" t="s">
+      <c r="E14" s="99"/>
+      <c r="F14" s="200" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="128"/>
-    </row>
-    <row r="15" s="40" customFormat="1" ht="92.4" spans="1:9">
-      <c r="A15" s="88" t="s">
+      <c r="G14" s="105"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="108"/>
+    </row>
+    <row r="15" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A15" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="233" t="s">
+      <c r="D15" s="197" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="236" t="s">
+      <c r="E15" s="99"/>
+      <c r="F15" s="200" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="128"/>
-    </row>
-    <row r="16" s="40" customFormat="1" ht="92.4" spans="1:6">
-      <c r="A16" s="92" t="s">
+      <c r="G15" s="105"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A16" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="233" t="s">
+      <c r="D16" s="197" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="236" t="s">
+      <c r="F16" s="200" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A17" s="88" t="s">
+    <row r="17" spans="1:11" s="36" customFormat="1" ht="89.25">
+      <c r="A17" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="233" t="s">
+      <c r="D17" s="197" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="236" t="s">
+      <c r="E17" s="121"/>
+      <c r="F17" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="131"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="121"/>
-    </row>
-    <row r="18" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A18" s="92" t="s">
+      <c r="G17" s="111"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="101"/>
+    </row>
+    <row r="18" spans="1:11" s="36" customFormat="1" ht="89.25">
+      <c r="A18" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="233" t="s">
+      <c r="D18" s="197" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="236" t="s">
+      <c r="E18" s="121"/>
+      <c r="F18" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="121"/>
-    </row>
-    <row r="19" s="40" customFormat="1" ht="39.6" spans="1:11">
-      <c r="A19" s="88" t="s">
+      <c r="G18" s="111"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="101"/>
+    </row>
+    <row r="19" spans="1:11" s="36" customFormat="1" ht="38.25">
+      <c r="A19" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="233" t="s">
+      <c r="D19" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="123" t="s">
+      <c r="E19" s="121"/>
+      <c r="F19" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="131"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="121"/>
-    </row>
-    <row r="20" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A20" s="92" t="s">
+      <c r="G19" s="111"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="101"/>
+    </row>
+    <row r="20" spans="1:11" s="36" customFormat="1" ht="114.75">
+      <c r="A20" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="233" t="s">
+      <c r="D20" s="197" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="123" t="s">
+      <c r="E20" s="121"/>
+      <c r="F20" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="131"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="121"/>
-    </row>
-    <row r="21" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A21" s="88" t="s">
+      <c r="G20" s="111"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="101"/>
+    </row>
+    <row r="21" spans="1:11" s="36" customFormat="1" ht="114.75">
+      <c r="A21" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="233" t="s">
+      <c r="D21" s="197" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="123" t="s">
+      <c r="E21" s="121"/>
+      <c r="F21" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="131"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="121"/>
-    </row>
-    <row r="22" s="40" customFormat="1" ht="105.6" spans="1:11">
-      <c r="A22" s="92" t="s">
+      <c r="G21" s="111"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="101"/>
+    </row>
+    <row r="22" spans="1:11" s="36" customFormat="1" ht="114.75">
+      <c r="A22" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="233" t="s">
+      <c r="D22" s="197" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="123" t="s">
+      <c r="E22" s="121"/>
+      <c r="F22" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="131"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="121"/>
-    </row>
-    <row r="23" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A23" s="88" t="s">
+      <c r="G22" s="111"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="101"/>
+    </row>
+    <row r="23" spans="1:11" s="36" customFormat="1" ht="114.75">
+      <c r="A23" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="233" t="s">
+      <c r="D23" s="197" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="142"/>
-      <c r="F23" s="123" t="s">
+      <c r="E23" s="121"/>
+      <c r="F23" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="131"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="121"/>
-    </row>
-    <row r="24" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A24" s="92" t="s">
+      <c r="G23" s="111"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="101"/>
+    </row>
+    <row r="24" spans="1:11" s="36" customFormat="1" ht="114.75">
+      <c r="A24" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="233" t="s">
+      <c r="D24" s="197" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="123" t="s">
+      <c r="E24" s="121"/>
+      <c r="F24" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="131"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="121"/>
-    </row>
-    <row r="25" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A25" s="88" t="s">
+      <c r="G24" s="111"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="101"/>
+    </row>
+    <row r="25" spans="1:11" s="36" customFormat="1" ht="114.75">
+      <c r="A25" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="233" t="s">
+      <c r="D25" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="123" t="s">
+      <c r="E25" s="121"/>
+      <c r="F25" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="121"/>
-    </row>
-    <row r="26" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A26" s="92" t="s">
+      <c r="G25" s="111"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="101"/>
+    </row>
+    <row r="26" spans="1:11" s="36" customFormat="1" ht="114.75">
+      <c r="A26" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="233" t="s">
+      <c r="D26" s="197" t="s">
         <v>177</v>
       </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="123" t="s">
+      <c r="E26" s="121"/>
+      <c r="F26" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="131"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="121"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="144"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="101"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I15 I17:I26">
@@ -8330,452 +7753,450 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.1388888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="41.8518518518519" style="42" customWidth="1"/>
-    <col min="4" max="4" width="45.5740740740741" style="42" customWidth="1"/>
-    <col min="5" max="5" width="18.712962962963" style="42" customWidth="1"/>
-    <col min="6" max="6" width="46.287037037037" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="19.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:15">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I973,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="50">
         <f>COUNTIF(I15:I973,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
         <v>7</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$15:I$973,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A15:A973)</f>
         <v>7</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A10" s="88" t="s">
+      <c r="J9" s="116"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="36" customFormat="1" ht="114.75">
+      <c r="A10" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="235" t="s">
+      <c r="D10" s="199" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="237" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" s="40" customFormat="1" ht="105.6" spans="1:11">
-      <c r="A11" s="88" t="s">
+      <c r="G10" s="103"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="102">
+      <c r="A11" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="237" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="201" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="121"/>
-    </row>
-    <row r="12" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A12" s="88" t="s">
+      <c r="G11" s="103"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A12" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="88" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="D12" s="199" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="237" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="201" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="123"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="121"/>
-    </row>
-    <row r="13" s="40" customFormat="1" ht="118.8" spans="1:11">
-      <c r="A13" s="88" t="s">
+      <c r="G12" s="103"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="101"/>
+    </row>
+    <row r="13" spans="1:15" s="36" customFormat="1" ht="114.75">
+      <c r="A13" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="88" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="235" t="s">
+      <c r="D13" s="199" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="237" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="123"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="121"/>
-    </row>
-    <row r="14" s="40" customFormat="1" ht="92.4" spans="1:11">
-      <c r="A14" s="88" t="s">
+      <c r="G13" s="103"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="101"/>
+    </row>
+    <row r="14" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A14" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="235" t="s">
+      <c r="D14" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="234" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="121"/>
-    </row>
-    <row r="15" s="40" customFormat="1" ht="92.4" spans="1:9">
-      <c r="A15" s="88" t="s">
+      <c r="G14" s="103"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="101"/>
+    </row>
+    <row r="15" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="A15" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="234" t="s">
+      <c r="E15" s="99"/>
+      <c r="F15" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="140"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="128"/>
-    </row>
-    <row r="16" s="40" customFormat="1" ht="118.8" spans="1:9">
-      <c r="A16" s="88" t="s">
+      <c r="G15" s="119"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="114.75">
+      <c r="A16" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="235" t="s">
+      <c r="D16" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="236" t="s">
+      <c r="E16" s="99"/>
+      <c r="F16" s="200" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="125"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="128"/>
-    </row>
-    <row r="17" s="40" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A17" s="88" t="s">
+      <c r="G16" s="105"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="108"/>
+    </row>
+    <row r="17" spans="1:9" s="36" customFormat="1" ht="102">
+      <c r="A17" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="235" t="s">
+      <c r="D17" s="199" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="236" t="s">
+      <c r="E17" s="99"/>
+      <c r="F17" s="200" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="128"/>
-    </row>
-    <row r="18" s="40" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A18" s="88" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="108"/>
+    </row>
+    <row r="18" spans="1:9" s="36" customFormat="1" ht="102">
+      <c r="A18" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="235" t="s">
+      <c r="D18" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="236" t="s">
+      <c r="E18" s="99"/>
+      <c r="F18" s="200" t="s">
         <v>203</v>
       </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="128"/>
-    </row>
-    <row r="19" s="40" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A19" s="88" t="s">
+      <c r="G18" s="105"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="108"/>
+    </row>
+    <row r="19" spans="1:9" s="36" customFormat="1" ht="102">
+      <c r="A19" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="235" t="s">
+      <c r="D19" s="199" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="236" t="s">
+      <c r="E19" s="99"/>
+      <c r="F19" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="128"/>
-    </row>
-    <row r="20" s="40" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A20" s="88" t="s">
+      <c r="G19" s="105"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="108"/>
+    </row>
+    <row r="20" spans="1:9" s="36" customFormat="1" ht="102">
+      <c r="A20" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="235" t="s">
+      <c r="D20" s="199" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="236" t="s">
+      <c r="E20" s="99"/>
+      <c r="F20" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="128"/>
-    </row>
-    <row r="21" s="40" customFormat="1" ht="66" spans="1:9">
-      <c r="A21" s="88" t="s">
+      <c r="G20" s="105"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="108"/>
+    </row>
+    <row r="21" spans="1:9" s="36" customFormat="1" ht="63.75">
+      <c r="A21" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="235" t="s">
+      <c r="D21" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="236" t="s">
+      <c r="E21" s="99"/>
+      <c r="F21" s="200" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="125"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="128"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I21">
@@ -8783,354 +8204,352 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.1388888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="41.8518518518519" style="42" customWidth="1"/>
-    <col min="4" max="4" width="41.4259259259259" style="42" customWidth="1"/>
-    <col min="5" max="5" width="20.1388888888889" style="42" customWidth="1"/>
-    <col min="6" max="6" width="46.287037037037" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="19.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:15">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I972,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="50">
         <f>COUNTIF(I12:I972,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
         <v>5</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$12:I$972,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A12:A972)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="131" customFormat="1" ht="52.8" spans="1:11">
-      <c r="A10" s="88" t="s">
+      <c r="J9" s="116"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="111" customFormat="1" ht="63.75">
+      <c r="A10" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="235" t="s">
+      <c r="D10" s="199" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="238" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="202" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" s="40" customFormat="1" ht="39.75" customHeight="1" spans="1:11">
-      <c r="A11" s="88" t="s">
+      <c r="G10" s="103"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A11" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="199" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="234" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="198" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="121"/>
-    </row>
-    <row r="12" s="41" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A12" s="88" t="s">
+      <c r="G11" s="103"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="1:15" s="37" customFormat="1" ht="38.25">
+      <c r="A12" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="139" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="D12" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="234" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="130"/>
-    </row>
-    <row r="13" s="40" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A13" s="88" t="s">
+      <c r="G12" s="104"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="110"/>
+    </row>
+    <row r="13" spans="1:15" s="36" customFormat="1" ht="38.25">
+      <c r="A13" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="235" t="s">
+      <c r="D13" s="199" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="234" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="198" t="s">
         <v>229</v>
       </c>
-      <c r="G13" s="140"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="128"/>
-    </row>
-    <row r="14" s="131" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A14" s="88" t="s">
+      <c r="G13" s="119"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:15" s="111" customFormat="1" ht="38.25">
+      <c r="A14" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="235" t="s">
+      <c r="D14" s="199" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="234" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="198" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="128"/>
-    </row>
-    <row r="15" s="131" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A15" s="88" t="s">
+      <c r="G14" s="105"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="108"/>
+    </row>
+    <row r="15" spans="1:15" s="111" customFormat="1" ht="38.25">
+      <c r="A15" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="199" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="236" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="200" t="s">
         <v>237</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="128"/>
-    </row>
-    <row r="16" s="131" customFormat="1" ht="39.6" spans="1:9">
-      <c r="A16" s="88" t="s">
+      <c r="G15" s="105"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="16" spans="1:15" s="111" customFormat="1" ht="38.25">
+      <c r="A16" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="235" t="s">
+      <c r="D16" s="199" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="236" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="G16" s="125"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I16">
@@ -9138,493 +8557,491 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.1388888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="41.8518518518519" style="42" customWidth="1"/>
-    <col min="4" max="4" width="41.4259259259259" style="42" customWidth="1"/>
-    <col min="5" max="5" width="20.1388888888889" style="42" customWidth="1"/>
-    <col min="6" max="6" width="46.287037037037" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="19.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:15">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I971,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="50">
         <f>COUNTIF(I12:I971,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
         <v>13</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$12:I$971,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A12:A971)</f>
         <v>13</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="123" customFormat="1" ht="79.2" spans="1:11">
-      <c r="A10" s="133" t="s">
+      <c r="J9" s="116"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="103" customFormat="1" ht="89.25">
+      <c r="A10" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="235" t="s">
+      <c r="D10" s="199" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="237" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="201" t="s">
         <v>245</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="110"/>
-    </row>
-    <row r="11" s="111" customFormat="1" ht="66" spans="1:11">
-      <c r="A11" s="133" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="90"/>
+    </row>
+    <row r="11" spans="1:15" s="91" customFormat="1" ht="63.75">
+      <c r="A11" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="82" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="199" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="234" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="198" t="s">
         <v>248</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="110"/>
-    </row>
-    <row r="12" s="112" customFormat="1" ht="132" spans="1:9">
-      <c r="A12" s="133" t="s">
+      <c r="G11" s="103"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="90"/>
+    </row>
+    <row r="12" spans="1:15" s="92" customFormat="1" ht="127.5">
+      <c r="A12" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="82" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="D12" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="234" t="s">
+      <c r="E12" s="77"/>
+      <c r="F12" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="137"/>
-    </row>
-    <row r="13" s="111" customFormat="1" ht="132" spans="1:9">
-      <c r="A13" s="133" t="s">
+      <c r="G12" s="74"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="117"/>
+    </row>
+    <row r="13" spans="1:15" s="91" customFormat="1" ht="127.5">
+      <c r="A13" s="113" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D13" s="235" t="s">
+      <c r="D13" s="199" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="234" t="s">
+      <c r="E13" s="93"/>
+      <c r="F13" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="126"/>
-    </row>
-    <row r="14" s="123" customFormat="1" ht="132" spans="1:9">
-      <c r="A14" s="133" t="s">
+      <c r="G13" s="114"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="106"/>
+    </row>
+    <row r="14" spans="1:15" s="103" customFormat="1" ht="127.5">
+      <c r="A14" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="235" t="s">
+      <c r="D14" s="199" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="234" t="s">
+      <c r="E14" s="94"/>
+      <c r="F14" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="126"/>
-    </row>
-    <row r="15" s="123" customFormat="1" ht="132" spans="1:9">
-      <c r="A15" s="133" t="s">
+      <c r="G14" s="115"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="106"/>
+    </row>
+    <row r="15" spans="1:15" s="103" customFormat="1" ht="127.5">
+      <c r="A15" s="113" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="199" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="234" t="s">
+      <c r="E15" s="94"/>
+      <c r="F15" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="135"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="126"/>
-    </row>
-    <row r="16" s="123" customFormat="1" ht="132" spans="1:9">
-      <c r="A16" s="133" t="s">
+      <c r="G15" s="115"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="106"/>
+    </row>
+    <row r="16" spans="1:15" s="103" customFormat="1" ht="127.5">
+      <c r="A16" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="235" t="s">
+      <c r="D16" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="234" t="s">
+      <c r="E16" s="94"/>
+      <c r="F16" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="126"/>
-    </row>
-    <row r="17" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A17" s="133" t="s">
+      <c r="G16" s="115"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="106"/>
+    </row>
+    <row r="17" spans="1:9" s="103" customFormat="1" ht="140.25">
+      <c r="A17" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="235" t="s">
+      <c r="D17" s="199" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="236" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="135"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="126"/>
-    </row>
-    <row r="18" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A18" s="133" t="s">
+      <c r="G17" s="115"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="106"/>
+    </row>
+    <row r="18" spans="1:9" s="103" customFormat="1" ht="140.25">
+      <c r="A18" s="113" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="235" t="s">
+      <c r="D18" s="199" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="236" t="s">
+      <c r="E18" s="94"/>
+      <c r="F18" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="126"/>
-    </row>
-    <row r="19" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A19" s="133" t="s">
+      <c r="G18" s="115"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="106"/>
+    </row>
+    <row r="19" spans="1:9" s="103" customFormat="1" ht="140.25">
+      <c r="A19" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="235" t="s">
+      <c r="D19" s="199" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="236" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="126"/>
-    </row>
-    <row r="20" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A20" s="133" t="s">
+      <c r="G19" s="115"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="106"/>
+    </row>
+    <row r="20" spans="1:9" s="103" customFormat="1" ht="140.25">
+      <c r="A20" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="235" t="s">
+      <c r="D20" s="199" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="236" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="135"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="126"/>
-    </row>
-    <row r="21" s="123" customFormat="1" ht="158.4" spans="1:9">
-      <c r="A21" s="133" t="s">
+      <c r="G20" s="115"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="106"/>
+    </row>
+    <row r="21" spans="1:9" s="103" customFormat="1" ht="153">
+      <c r="A21" s="113" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="235" t="s">
+      <c r="D21" s="199" t="s">
         <v>272</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="236" t="s">
+      <c r="E21" s="94"/>
+      <c r="F21" s="200" t="s">
         <v>273</v>
       </c>
-      <c r="G21" s="135"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="126"/>
-    </row>
-    <row r="22" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A22" s="133" t="s">
+      <c r="G21" s="115"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="106"/>
+    </row>
+    <row r="22" spans="1:9" s="103" customFormat="1" ht="140.25">
+      <c r="A22" s="113" t="s">
         <v>274</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="235" t="s">
+      <c r="D22" s="199" t="s">
         <v>276</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="236" t="s">
+      <c r="E22" s="94"/>
+      <c r="F22" s="200" t="s">
         <v>277</v>
       </c>
-      <c r="G22" s="135"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="126"/>
-    </row>
-    <row r="23" s="123" customFormat="1" ht="145.2" spans="1:9">
-      <c r="A23" s="133" t="s">
+      <c r="G22" s="115"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="106"/>
+    </row>
+    <row r="23" spans="1:9" s="103" customFormat="1" ht="153">
+      <c r="A23" s="113" t="s">
         <v>278</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="235" t="s">
+      <c r="D23" s="199" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="236" t="s">
+      <c r="E23" s="94"/>
+      <c r="F23" s="200" t="s">
         <v>281</v>
       </c>
-      <c r="G23" s="135"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="126"/>
-    </row>
-    <row r="24" s="131" customFormat="1" ht="99.75" customHeight="1" spans="1:6">
-      <c r="A24" s="133" t="s">
+      <c r="G23" s="115"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="106"/>
+    </row>
+    <row r="24" spans="1:9" s="111" customFormat="1" ht="99.75" customHeight="1">
+      <c r="A24" s="113" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="235" t="s">
+      <c r="D24" s="199" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="123" t="s">
+      <c r="F24" s="103" t="s">
         <v>285</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I23">
@@ -9632,373 +9049,435 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.1388888888889" style="42" customWidth="1"/>
-    <col min="3" max="3" width="41.8518518518519" style="42" customWidth="1"/>
-    <col min="4" max="4" width="41.4259259259259" style="42" customWidth="1"/>
-    <col min="5" max="5" width="20.1388888888889" style="42" customWidth="1"/>
-    <col min="6" max="6" width="46.287037037037" style="43" customWidth="1"/>
-    <col min="7" max="7" width="47.712962962963" style="42" customWidth="1"/>
-    <col min="8" max="8" width="29" style="42" customWidth="1"/>
-    <col min="9" max="9" width="19" style="42" customWidth="1"/>
-    <col min="10" max="12" width="15.8518518518519" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="10.287037037037" style="42"/>
+    <col min="1" max="1" width="19.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29" style="38" customWidth="1"/>
+    <col min="9" max="9" width="19" style="38" customWidth="1"/>
+    <col min="10" max="12" width="15.85546875" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:15">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="95"/>
-      <c r="O2" s="96" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="79"/>
+      <c r="O2" s="80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" ht="39.6" spans="1:15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:15" ht="38.25">
+      <c r="A3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="230"/>
+      <c r="O3" s="81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" ht="26.4" spans="1:15">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:15" ht="25.5">
+      <c r="A4" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="228" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="97"/>
-      <c r="O4" s="99" t="s">
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
+      <c r="O4" s="82" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:15">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
+      <c r="A5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="232"/>
+      <c r="E5" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="101">
+      <c r="H5" s="236"/>
+      <c r="I5" s="237"/>
+      <c r="K5" s="83">
         <f ca="1">NOW()</f>
-        <v>43998.397025463</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="O5" s="42" t="s">
+        <v>43998.592296180555</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="O5" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="49">
         <f>COUNTIF(I10:I972,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="62">
+        <v>8</v>
+      </c>
+      <c r="B6" s="50">
         <f>COUNTIF(I12:I972,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="238">
         <f>G6-E6-B6-A6</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="63">
+        <v>-2</v>
+      </c>
+      <c r="D6" s="239"/>
+      <c r="E6" s="238">
         <f>COUNTIF(I$12:I$972,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65">
+      <c r="F6" s="239"/>
+      <c r="G6" s="240">
         <f>COUNTA(A12:A972)</f>
         <v>6</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="104"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="52.8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="51">
+      <c r="A8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="105"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="M8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78" t="s">
+      <c r="C9" s="244"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="89.1" customHeight="1" spans="1:11">
-      <c r="A10" s="88" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="1:15" s="36" customFormat="1" ht="89.1" customHeight="1">
+      <c r="A10" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="235" t="s">
+      <c r="D10" s="199" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="237" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="201" t="s">
         <v>290</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="121"/>
-    </row>
-    <row r="11" s="40" customFormat="1" ht="87.95" customHeight="1" spans="1:11">
-      <c r="A11" s="88" t="s">
+      <c r="G10" s="201" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="203" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="101"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="87.95" customHeight="1">
+      <c r="A11" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="199" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="234" t="s">
+      <c r="E11" s="197" t="s">
+        <v>429</v>
+      </c>
+      <c r="F11" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="121"/>
-    </row>
-    <row r="12" s="41" customFormat="1" ht="117" customHeight="1" spans="1:9">
-      <c r="A12" s="88" t="s">
+      <c r="G11" s="198" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="203" t="s">
+        <v>346</v>
+      </c>
+      <c r="K11" s="101"/>
+    </row>
+    <row r="12" spans="1:15" s="37" customFormat="1" ht="117" customHeight="1">
+      <c r="A12" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="88" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="D12" s="199" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="234" t="s">
+      <c r="E12" s="97" t="s">
+        <v>428</v>
+      </c>
+      <c r="F12" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="130"/>
-    </row>
-    <row r="13" s="41" customFormat="1" ht="90.95" customHeight="1" spans="1:9">
-      <c r="A13" s="88" t="s">
+      <c r="G12" s="198" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="98"/>
+      <c r="I12" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="203" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="37" customFormat="1" ht="90.95" customHeight="1">
+      <c r="A13" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="88" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="D13" s="235" t="s">
+      <c r="D13" s="199" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="234" t="s">
+      <c r="E13" s="250" t="s">
+        <v>431</v>
+      </c>
+      <c r="F13" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="130"/>
-    </row>
-    <row r="14" s="40" customFormat="1" ht="69.95" customHeight="1" spans="1:9">
-      <c r="A14" s="88" t="s">
+      <c r="G13" s="198" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="203" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="36" customFormat="1" ht="69.95" customHeight="1">
+      <c r="A14" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="235" t="s">
+      <c r="D14" s="199" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="90" t="s">
+      <c r="E14" s="249" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="128"/>
-    </row>
-    <row r="15" s="40" customFormat="1" ht="98.1" customHeight="1" spans="1:9">
-      <c r="A15" s="88" t="s">
+      <c r="G14" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" s="100"/>
+      <c r="I14" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="203" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="36" customFormat="1" ht="98.1" customHeight="1">
+      <c r="A15" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="199" t="s">
         <v>307</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="90" t="s">
+      <c r="E15" s="249" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="128"/>
-    </row>
-    <row r="16" s="40" customFormat="1" ht="80.1" customHeight="1" spans="1:9">
-      <c r="A16" s="88" t="s">
+      <c r="G15" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="100"/>
+      <c r="I15" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="203" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A16" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="90" t="s">
+      <c r="E16" s="99"/>
+      <c r="F16" s="74" t="s">
         <v>312</v>
       </c>
-      <c r="G16" s="125"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="128"/>
-    </row>
-    <row r="17" s="40" customFormat="1" ht="93" customHeight="1" spans="1:9">
-      <c r="A17" s="88" t="s">
+      <c r="G16" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="H16" s="100"/>
+      <c r="I16" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="203" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="36" customFormat="1" ht="93" customHeight="1">
+      <c r="A17" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="90" t="s">
+      <c r="E17" s="99"/>
+      <c r="F17" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="100"/>
+      <c r="I17" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="203" t="s">
+        <v>427</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I17">
@@ -10006,7 +9485,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>